--- a/odkx/app/config/tables/hh_member/forms/hh_member_new/hh_member_new.xlsx
+++ b/odkx/app/config/tables/hh_member/forms/hh_member_new/hh_member_new.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="453">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -143,6 +143,9 @@
     <t xml:space="preserve">day</t>
   </si>
   <si>
+    <t xml:space="preserve">dob_hint</t>
+  </si>
+  <si>
     <t xml:space="preserve">not(selected(data('dob_day_dk'), 'dk'))</t>
   </si>
   <si>
@@ -152,6 +155,12 @@
     <t xml:space="preserve">dob_day</t>
   </si>
   <si>
+    <t xml:space="preserve">data('dob_day') &lt; 32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date_cons</t>
+  </si>
+  <si>
     <t xml:space="preserve">end if</t>
   </si>
   <si>
@@ -167,22 +176,40 @@
     <t xml:space="preserve">month</t>
   </si>
   <si>
+    <t xml:space="preserve">month_hint</t>
+  </si>
+  <si>
     <t xml:space="preserve">not(selected(data('dob_month_dk'), 'dk'))</t>
   </si>
   <si>
     <t xml:space="preserve">dob_month</t>
   </si>
   <si>
+    <t xml:space="preserve">data('dob_month') &lt; 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">month_cons</t>
+  </si>
+  <si>
     <t xml:space="preserve">dob_month_dk</t>
   </si>
   <si>
     <t xml:space="preserve">year</t>
   </si>
   <si>
+    <t xml:space="preserve">year_hint</t>
+  </si>
+  <si>
     <t xml:space="preserve">not(selected(data('dob_year_dk'), 'dk'))</t>
   </si>
   <si>
     <t xml:space="preserve">dob_year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data('dob_year') &gt; 1919 &amp;&amp; data('dob_year') &lt; 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">year_cons</t>
   </si>
   <si>
     <t xml:space="preserve">dob_year_dk</t>
@@ -1365,7 +1392,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1399,6 +1426,13 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Cascadia mono semilight"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
@@ -1522,7 +1556,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1539,39 +1573,43 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1579,7 +1617,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1662,11 +1700,11 @@
   </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.3203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.3046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.95"/>
@@ -1716,13 +1754,13 @@
   </sheetPr>
   <dimension ref="A1:P90"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="N9" activeCellId="0" sqref="N9"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="F25" activeCellId="0" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.3203125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.3046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.63"/>
@@ -1968,7 +2006,9 @@
       <c r="F10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="2"/>
+      <c r="G10" s="0" t="s">
+        <v>39</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -1980,13 +2020,12 @@
         <v>26</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -1997,17 +2036,16 @@
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J12" s="1" t="n">
         <v>1</v>
@@ -2018,20 +2056,25 @@
       <c r="L12" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="N12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O12" s="0" t="s">
+        <v>44</v>
+      </c>
       <c r="P12" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
       <c r="D13" s="1"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -2042,16 +2085,15 @@
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -2070,9 +2112,11 @@
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>50</v>
+      </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -2084,13 +2128,12 @@
         <v>26</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="1"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -2101,17 +2144,16 @@
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J17" s="1" t="n">
         <v>1</v>
@@ -2122,20 +2164,25 @@
       <c r="L17" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="N17" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="O17" s="0" t="s">
+        <v>54</v>
+      </c>
       <c r="P17" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -2146,16 +2193,15 @@
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -2174,9 +2220,11 @@
       <c r="D20" s="1"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G20" s="2"/>
+        <v>56</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>57</v>
+      </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -2188,7 +2236,7 @@
         <v>26</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="1"/>
@@ -2205,17 +2253,17 @@
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="J22" s="1" t="n">
         <v>1920</v>
@@ -2226,13 +2274,19 @@
       <c r="L22" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="N22" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="O22" s="0" t="s">
+        <v>61</v>
+      </c>
       <c r="P22" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="2"/>
@@ -2250,13 +2304,13 @@
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -2274,7 +2328,7 @@
         <v>26</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="1"/>
@@ -2291,10 +2345,10 @@
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="0" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -2302,26 +2356,26 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="0" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="J27" s="1" t="n">
         <v>0</v>
@@ -2335,13 +2389,13 @@
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -2356,7 +2410,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="2"/>
@@ -2375,7 +2429,7 @@
         <v>26</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -2385,10 +2439,10 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="0" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -2396,12 +2450,12 @@
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="0" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -2414,7 +2468,7 @@
         <v>26</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -2424,10 +2478,10 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="0" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -2435,12 +2489,12 @@
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="0" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -2455,18 +2509,18 @@
         <v>22</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H36" s="4"/>
+        <v>74</v>
+      </c>
+      <c r="H36" s="5"/>
       <c r="I36" s="1" t="s">
         <v>27</v>
       </c>
@@ -2482,14 +2536,14 @@
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="G37" s="2"/>
-      <c r="H37" s="5" t="s">
-        <v>68</v>
+      <c r="H37" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>27</v>
@@ -2498,12 +2552,12 @@
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="N37" s="0" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2522,7 +2576,7 @@
         <v>26</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -2544,7 +2598,7 @@
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -2564,18 +2618,18 @@
         <v>7</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="N41" s="0" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="O41" s="0" t="s">
         <v>32</v>
@@ -2592,18 +2646,18 @@
         <v>33</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="N42" s="0" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="O42" s="0" t="s">
         <v>36</v>
@@ -2618,7 +2672,7 @@
       <c r="D43" s="1"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" s="1"/>
@@ -2650,7 +2704,7 @@
         <v>26</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="1"/>
@@ -2667,17 +2721,17 @@
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J46" s="1" t="n">
         <v>1</v>
@@ -2694,7 +2748,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="2"/>
@@ -2712,13 +2766,13 @@
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
@@ -2740,7 +2794,7 @@
       <c r="D49" s="1"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G49" s="2"/>
       <c r="H49" s="1"/>
@@ -2754,7 +2808,7 @@
         <v>26</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="1"/>
@@ -2771,17 +2825,17 @@
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J51" s="1" t="n">
         <v>1</v>
@@ -2798,7 +2852,7 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="2"/>
@@ -2816,13 +2870,13 @@
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -2844,7 +2898,7 @@
       <c r="D54" s="1"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G54" s="2"/>
       <c r="H54" s="1"/>
@@ -2858,7 +2912,7 @@
         <v>26</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="1"/>
@@ -2875,17 +2929,17 @@
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="J56" s="1" t="n">
         <v>1920</v>
@@ -2902,7 +2956,7 @@
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="2"/>
@@ -2920,13 +2974,13 @@
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
@@ -2944,7 +2998,7 @@
         <v>26</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="1"/>
@@ -2961,10 +3015,10 @@
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="0" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
@@ -2972,26 +3026,26 @@
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
       <c r="M60" s="0" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G61" s="2"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="J61" s="1" t="n">
         <v>0</v>
@@ -3005,13 +3059,13 @@
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
@@ -3026,7 +3080,7 @@
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="2"/>
@@ -3045,7 +3099,7 @@
         <v>26</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
@@ -3055,10 +3109,10 @@
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C65" s="0" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
@@ -3066,12 +3120,12 @@
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
       <c r="M65" s="0" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
@@ -3084,7 +3138,7 @@
         <v>26</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
@@ -3094,10 +3148,10 @@
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C68" s="0" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
@@ -3105,12 +3159,12 @@
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
       <c r="M68" s="0" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
@@ -3125,13 +3179,13 @@
         <v>22</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
@@ -3146,18 +3200,18 @@
         <v>22</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="H71" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="H71" s="5"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
@@ -3167,14 +3221,14 @@
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
@@ -3186,14 +3240,14 @@
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
@@ -3212,10 +3266,10 @@
         <v>22</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="F74" s="2"/>
       <c r="H74" s="1"/>
@@ -3231,13 +3285,13 @@
         <v>22</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
@@ -3250,7 +3304,7 @@
         <v>26</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -3269,13 +3323,13 @@
         <v>22</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
@@ -3288,7 +3342,7 @@
         <v>26</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -3308,35 +3362,35 @@
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="3" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H79" s="5" t="s">
-        <v>68</v>
+        <v>106</v>
+      </c>
+      <c r="H79" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
       <c r="N79" s="0" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
@@ -3348,7 +3402,7 @@
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -3364,7 +3418,7 @@
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -3383,7 +3437,7 @@
         <v>26</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -3405,7 +3459,7 @@
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
@@ -3415,7 +3469,7 @@
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -3431,7 +3485,7 @@
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -3450,7 +3504,7 @@
         <v>26</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -3467,11 +3521,11 @@
       <c r="A88" s="2"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
@@ -3481,12 +3535,12 @@
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
       <c r="M88" s="0" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -3502,7 +3556,7 @@
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -3534,11 +3588,11 @@
   </sheetPr>
   <dimension ref="A1:C255"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.33984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.3203125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.2"/>
@@ -3547,1806 +3601,1806 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5354,10 +5408,10 @@
         <v>23</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5365,989 +5419,989 @@
         <v>23</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="B225" s="0" t="s">
         <v>302</v>
       </c>
-      <c r="B225" s="0" t="s">
-        <v>293</v>
-      </c>
       <c r="C225" s="0" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="C232" s="0" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="C233" s="0" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="C234" s="0" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="C235" s="0" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="C236" s="0" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="C237" s="0" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="C238" s="0" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="C239" s="0" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="C240" s="0" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="C241" s="0" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="C242" s="0" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="C243" s="0" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="C244" s="0" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="C245" s="0" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="C246" s="0" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="C247" s="0" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="C248" s="0" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="C249" s="0" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="C250" s="0" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="C251" s="0" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="B252" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C252" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="C253" s="0" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="B254" s="0" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C254" s="0" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="B255" s="0" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="C255" s="0" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -6368,11 +6422,11 @@
   </sheetPr>
   <dimension ref="A1:E763"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.35546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.33984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.51"/>
@@ -6384,7 +6438,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>7</v>
@@ -6393,3130 +6447,3130 @@
         <v>1</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>330</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>331</v>
+        <v>339</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>332</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="E2" s="6"/>
+        <v>341</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="E3" s="6"/>
+      <c r="B3" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="E3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="E4" s="6"/>
+      <c r="B4" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="E4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="E5" s="6" t="n">
+      <c r="B5" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="E5" s="7" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="6"/>
+      <c r="B6" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="6"/>
+      <c r="B7" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="6"/>
+      <c r="B8" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="6"/>
+      <c r="B9" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="6"/>
+      <c r="B10" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="7"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="6"/>
+      <c r="B11" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="7"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="6"/>
+      <c r="B12" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="7"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>345</v>
-      </c>
-      <c r="B13" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="6"/>
+      <c r="E13" s="7"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="6"/>
+      <c r="E14" s="7"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="6"/>
+      <c r="E15" s="7"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>43</v>
+      <c r="B16" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="6"/>
+        <v>47</v>
+      </c>
+      <c r="E16" s="7"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="6"/>
+      <c r="B17" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>43</v>
+      <c r="B18" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="6"/>
+        <v>47</v>
+      </c>
+      <c r="E18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="6"/>
+      <c r="B19" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="7"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>43</v>
+      <c r="B20" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="6"/>
+        <v>47</v>
+      </c>
+      <c r="E20" s="7"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="6"/>
+      <c r="B21" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="7"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>43</v>
+      <c r="B22" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="E22" s="6"/>
+        <v>68</v>
+      </c>
+      <c r="E22" s="7"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C23" s="8" t="s">
+      <c r="B23" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="9" t="s">
         <v>22</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="E23" s="6"/>
+        <v>87</v>
+      </c>
+      <c r="E23" s="7"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" s="8" t="s">
+      <c r="B24" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>22</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="E24" s="6"/>
+        <v>72</v>
+      </c>
+      <c r="E24" s="7"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" s="8" t="s">
+      <c r="B25" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E25" s="6"/>
+      <c r="E25" s="7"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>346</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>347</v>
-      </c>
-      <c r="C26" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="C26" s="10" t="s">
         <v>22</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>287</v>
-      </c>
-      <c r="E26" s="6"/>
+        <v>296</v>
+      </c>
+      <c r="E26" s="7"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="9" t="s">
-        <v>348</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="E27" s="6"/>
+      <c r="B27" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="E27" s="7"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E28" s="6"/>
+      <c r="B28" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" s="7"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="C29" s="9" t="s">
+      <c r="B29" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="C29" s="10" t="s">
         <v>22</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="E29" s="6"/>
+        <v>194</v>
+      </c>
+      <c r="E29" s="7"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>43</v>
+      <c r="B30" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E30" s="6"/>
+        <v>47</v>
+      </c>
+      <c r="E30" s="7"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="C31" s="9" t="s">
+      <c r="B31" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C31" s="10" t="s">
         <v>22</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="E31" s="6"/>
+        <v>124</v>
+      </c>
+      <c r="E31" s="7"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>353</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="C32" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="C32" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>236</v>
-      </c>
-      <c r="E32" s="6"/>
+        <v>245</v>
+      </c>
+      <c r="E32" s="7"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>349</v>
-      </c>
-      <c r="E33" s="6"/>
+      <c r="B33" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="E33" s="7"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>43</v>
+      <c r="B34" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E34" s="6"/>
+        <v>47</v>
+      </c>
+      <c r="E34" s="7"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="10" t="s">
-        <v>356</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>349</v>
-      </c>
-      <c r="E35" s="6"/>
+      <c r="B35" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="E35" s="7"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="10" t="s">
-        <v>357</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E36" s="6"/>
+      <c r="B36" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E36" s="7"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="C37" s="10" t="s">
+      <c r="B37" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="C37" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="E37" s="6"/>
+        <v>96</v>
+      </c>
+      <c r="E37" s="7"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="C38" s="10" t="s">
+      <c r="B38" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="C38" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="E38" s="6"/>
+        <v>98</v>
+      </c>
+      <c r="E38" s="7"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>360</v>
-      </c>
-      <c r="B39" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="B39" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D39" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E39" s="6"/>
+      <c r="E39" s="7"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="E40" s="6"/>
+      <c r="B40" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E40" s="7"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E41" s="6"/>
+      <c r="B41" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E41" s="7"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C42" s="11" t="s">
+      <c r="B42" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="E42" s="6"/>
+        <v>96</v>
+      </c>
+      <c r="E42" s="7"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="C43" s="11" t="s">
+      <c r="B43" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C43" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="E43" s="6"/>
+        <v>98</v>
+      </c>
+      <c r="E43" s="7"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C44" s="11" t="s">
+      <c r="B44" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C44" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="E44" s="6"/>
+        <v>102</v>
+      </c>
+      <c r="E44" s="7"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>43</v>
+      <c r="B45" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>46</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="E45" s="6"/>
+        <v>108</v>
+      </c>
+      <c r="E45" s="7"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>361</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="C46" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="C46" s="9" t="s">
         <v>22</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="E46" s="6"/>
+        <v>102</v>
+      </c>
+      <c r="E46" s="7"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>43</v>
+      <c r="B47" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="E47" s="6"/>
+        <v>108</v>
+      </c>
+      <c r="E47" s="7"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>364</v>
-      </c>
-      <c r="B48" s="12" t="s">
-        <v>365</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E48" s="6"/>
+        <v>373</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E48" s="7"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="12" t="s">
-        <v>366</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>43</v>
+      <c r="B49" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="D49" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E49" s="7"/>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="E50" s="7"/>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E51" s="7"/>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="C52" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="E49" s="6"/>
-    </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="12" t="s">
-        <v>367</v>
-      </c>
-      <c r="C50" s="12" t="s">
+      <c r="D52" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E52" s="7"/>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="E53" s="7"/>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E54" s="7"/>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="C55" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D50" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="E50" s="6"/>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="12" t="s">
-        <v>368</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E51" s="6"/>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="12" t="s">
-        <v>369</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D52" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E52" s="6"/>
-    </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="12" t="s">
-        <v>370</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D53" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="E53" s="6"/>
-    </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="12" t="s">
-        <v>371</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E54" s="6"/>
-    </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="12" t="s">
-        <v>372</v>
-      </c>
-      <c r="C55" s="12" t="s">
-        <v>22</v>
-      </c>
       <c r="D55" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="E55" s="6"/>
+        <v>159</v>
+      </c>
+      <c r="E55" s="7"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>373</v>
-      </c>
-      <c r="B56" s="13" t="s">
-        <v>374</v>
-      </c>
-      <c r="C56" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="C56" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="E56" s="6"/>
+        <v>118</v>
+      </c>
+      <c r="E56" s="7"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="13" t="s">
-        <v>375</v>
-      </c>
-      <c r="C57" s="13" t="s">
+      <c r="B57" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="C57" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="E57" s="6"/>
+        <v>118</v>
+      </c>
+      <c r="E57" s="7"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="13" t="s">
-        <v>376</v>
-      </c>
-      <c r="C58" s="13" t="s">
+      <c r="B58" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="C58" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="E58" s="6"/>
+        <v>118</v>
+      </c>
+      <c r="E58" s="7"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="C59" s="13" t="s">
-        <v>378</v>
-      </c>
-      <c r="E59" s="6"/>
+      <c r="B59" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="E59" s="7"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="13" t="s">
-        <v>379</v>
-      </c>
-      <c r="C60" s="13" t="s">
+      <c r="B60" s="14" t="s">
+        <v>388</v>
+      </c>
+      <c r="C60" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="E60" s="6"/>
+        <v>118</v>
+      </c>
+      <c r="E60" s="7"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="13" t="s">
-        <v>380</v>
-      </c>
-      <c r="C61" s="13" t="s">
-        <v>378</v>
-      </c>
-      <c r="E61" s="6"/>
+      <c r="B61" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="E61" s="7"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="C62" s="13" t="s">
-        <v>378</v>
-      </c>
-      <c r="E62" s="6"/>
+      <c r="B62" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="E62" s="7"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="13" t="s">
-        <v>382</v>
-      </c>
-      <c r="C63" s="13" t="s">
+      <c r="B63" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="C63" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>266</v>
-      </c>
-      <c r="E63" s="6"/>
+        <v>275</v>
+      </c>
+      <c r="E63" s="7"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="13" t="s">
-        <v>383</v>
-      </c>
-      <c r="C64" s="13" t="s">
+      <c r="B64" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="C64" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>271</v>
-      </c>
-      <c r="E64" s="6"/>
+        <v>280</v>
+      </c>
+      <c r="E64" s="7"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="C65" s="13" t="s">
+      <c r="B65" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="C65" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="E65" s="6"/>
+        <v>213</v>
+      </c>
+      <c r="E65" s="7"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="13" t="s">
-        <v>384</v>
-      </c>
-      <c r="C66" s="13" t="s">
-        <v>385</v>
+      <c r="B66" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="C66" s="14" t="s">
+        <v>394</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>386</v>
-      </c>
-      <c r="E66" s="6"/>
+        <v>395</v>
+      </c>
+      <c r="E66" s="7"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="13" t="s">
-        <v>387</v>
-      </c>
-      <c r="C67" s="13" t="s">
-        <v>43</v>
+      <c r="B67" s="14" t="s">
+        <v>396</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>46</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>314</v>
-      </c>
-      <c r="E67" s="6"/>
+        <v>323</v>
+      </c>
+      <c r="E67" s="7"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="C68" s="13" t="s">
-        <v>43</v>
+      <c r="B68" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="C68" s="14" t="s">
+        <v>46</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="E68" s="6"/>
+        <v>168</v>
+      </c>
+      <c r="E68" s="7"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="C69" s="13" t="s">
+      <c r="B69" s="14" t="s">
+        <v>398</v>
+      </c>
+      <c r="C69" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E69" s="6"/>
+      <c r="E69" s="7"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="13" t="s">
-        <v>390</v>
-      </c>
-      <c r="C70" s="13" t="s">
+      <c r="B70" s="14" t="s">
+        <v>399</v>
+      </c>
+      <c r="C70" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="E70" s="6"/>
+        <v>102</v>
+      </c>
+      <c r="E70" s="7"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="13" t="s">
-        <v>391</v>
-      </c>
-      <c r="C71" s="13" t="s">
-        <v>43</v>
+      <c r="B71" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="C71" s="14" t="s">
+        <v>46</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="E71" s="6"/>
+        <v>262</v>
+      </c>
+      <c r="E71" s="7"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="13" t="s">
-        <v>392</v>
-      </c>
-      <c r="C72" s="13" t="s">
+      <c r="B72" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="C72" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E72" s="6"/>
+      <c r="E72" s="7"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="13" t="s">
-        <v>393</v>
-      </c>
-      <c r="C73" s="13" t="s">
-        <v>43</v>
+      <c r="B73" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="C73" s="14" t="s">
+        <v>46</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="E73" s="6"/>
+        <v>267</v>
+      </c>
+      <c r="E73" s="7"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="13" t="s">
-        <v>394</v>
-      </c>
-      <c r="C74" s="13" t="s">
+      <c r="B74" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="C74" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E74" s="6"/>
+      <c r="E74" s="7"/>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="13" t="s">
-        <v>395</v>
-      </c>
-      <c r="C75" s="13" t="s">
+      <c r="B75" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="C75" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="E75" s="6"/>
+        <v>118</v>
+      </c>
+      <c r="E75" s="7"/>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="13" t="s">
-        <v>396</v>
-      </c>
-      <c r="C76" s="13" t="s">
-        <v>43</v>
+      <c r="B76" s="14" t="s">
+        <v>405</v>
+      </c>
+      <c r="C76" s="14" t="s">
+        <v>46</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="E76" s="6"/>
+        <v>199</v>
+      </c>
+      <c r="E76" s="7"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="13" t="s">
-        <v>397</v>
-      </c>
-      <c r="C77" s="13" t="s">
+      <c r="B77" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="C77" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E77" s="6"/>
+      <c r="E77" s="7"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="13" t="s">
-        <v>398</v>
-      </c>
-      <c r="C78" s="13" t="s">
+      <c r="B78" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="C78" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="E78" s="6"/>
+        <v>102</v>
+      </c>
+      <c r="E78" s="7"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="C79" s="13" t="s">
+      <c r="B79" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="C79" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D79" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="E79" s="7"/>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B80" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="C80" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D80" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="E80" s="7"/>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B81" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="C81" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D81" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="E81" s="7"/>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B82" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="C82" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D82" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="E82" s="7"/>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B83" s="14" t="s">
+        <v>412</v>
+      </c>
+      <c r="C83" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D83" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="E83" s="7"/>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B84" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="C84" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D84" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="E84" s="7"/>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B85" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="C85" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D85" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="E85" s="7"/>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B86" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="C86" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D86" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="E86" s="7"/>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B87" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="C87" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D87" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="E79" s="6"/>
-    </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="13" t="s">
-        <v>400</v>
-      </c>
-      <c r="C80" s="13" t="s">
+      <c r="E87" s="7"/>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B88" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="C88" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D80" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="E80" s="6"/>
-    </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B81" s="13" t="s">
-        <v>401</v>
-      </c>
-      <c r="C81" s="13" t="s">
+      <c r="D88" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="E88" s="7"/>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B89" s="14" t="s">
+        <v>418</v>
+      </c>
+      <c r="C89" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D81" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="E81" s="6"/>
-    </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B82" s="13" t="s">
-        <v>402</v>
-      </c>
-      <c r="C82" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D82" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="E82" s="6"/>
-    </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B83" s="13" t="s">
-        <v>403</v>
-      </c>
-      <c r="C83" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D83" s="0" t="s">
-        <v>220</v>
-      </c>
-      <c r="E83" s="6"/>
-    </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="13" t="s">
-        <v>404</v>
-      </c>
-      <c r="C84" s="13" t="s">
+      <c r="D89" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="E89" s="7"/>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B90" s="14" t="s">
+        <v>419</v>
+      </c>
+      <c r="C90" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D84" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="E84" s="6"/>
-    </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="13" t="s">
-        <v>405</v>
-      </c>
-      <c r="C85" s="13" t="s">
+      <c r="D90" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="E90" s="7"/>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B91" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="C91" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D85" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="E85" s="6"/>
-    </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="13" t="s">
-        <v>406</v>
-      </c>
-      <c r="C86" s="13" t="s">
+      <c r="D91" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="E91" s="7"/>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B92" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="C92" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E92" s="7"/>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B93" s="14" t="s">
+        <v>422</v>
+      </c>
+      <c r="C93" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D86" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="E86" s="6"/>
-    </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="13" t="s">
-        <v>407</v>
-      </c>
-      <c r="C87" s="13" t="s">
+      <c r="D93" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E93" s="7"/>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B94" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="C94" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D87" s="0" t="s">
-        <v>223</v>
-      </c>
-      <c r="E87" s="6"/>
-    </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="13" t="s">
-        <v>408</v>
-      </c>
-      <c r="C88" s="13" t="s">
+      <c r="D94" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="E94" s="7"/>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B95" s="14" t="s">
+        <v>423</v>
+      </c>
+      <c r="C95" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D88" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="E88" s="6"/>
-    </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="13" t="s">
-        <v>409</v>
-      </c>
-      <c r="C89" s="13" t="s">
+      <c r="D95" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="E95" s="7"/>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B96" s="14" t="s">
+        <v>424</v>
+      </c>
+      <c r="C96" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D96" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E96" s="7"/>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B97" s="14" t="s">
+        <v>425</v>
+      </c>
+      <c r="C97" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D89" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="E89" s="6"/>
-    </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="C90" s="13" t="s">
+      <c r="D97" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="E97" s="7"/>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B98" s="14" t="s">
+        <v>426</v>
+      </c>
+      <c r="C98" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D90" s="0" t="s">
-        <v>215</v>
-      </c>
-      <c r="E90" s="6"/>
-    </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B91" s="13" t="s">
-        <v>411</v>
-      </c>
-      <c r="C91" s="13" t="s">
+      <c r="D98" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="E98" s="7"/>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B99" s="14" t="s">
+        <v>427</v>
+      </c>
+      <c r="C99" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D99" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E99" s="7"/>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B100" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="C100" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D91" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="E91" s="6"/>
-    </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B92" s="13" t="s">
-        <v>412</v>
-      </c>
-      <c r="C92" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E92" s="6"/>
-    </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B93" s="13" t="s">
-        <v>413</v>
-      </c>
-      <c r="C93" s="13" t="s">
+      <c r="D100" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="E100" s="7"/>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B101" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="C101" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D101" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="E101" s="7"/>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B102" s="14" t="s">
+        <v>429</v>
+      </c>
+      <c r="C102" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D93" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E93" s="6"/>
-    </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B94" s="13" t="s">
-        <v>301</v>
-      </c>
-      <c r="C94" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D94" s="0" t="s">
-        <v>301</v>
-      </c>
-      <c r="E94" s="6"/>
-    </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="13" t="s">
-        <v>414</v>
-      </c>
-      <c r="C95" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D95" s="0" t="s">
-        <v>295</v>
-      </c>
-      <c r="E95" s="6"/>
-    </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="13" t="s">
-        <v>415</v>
-      </c>
-      <c r="C96" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D96" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="E96" s="6"/>
-    </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B97" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="C97" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D97" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="E97" s="6"/>
-    </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B98" s="13" t="s">
-        <v>417</v>
-      </c>
-      <c r="C98" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D98" s="0" t="s">
-        <v>302</v>
-      </c>
-      <c r="E98" s="6"/>
-    </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B99" s="13" t="s">
-        <v>418</v>
-      </c>
-      <c r="C99" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D99" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="E99" s="6"/>
-    </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B100" s="13" t="s">
-        <v>419</v>
-      </c>
-      <c r="C100" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D100" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="E100" s="6"/>
-    </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B101" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="C101" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D101" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="E101" s="6"/>
-    </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B102" s="13" t="s">
-        <v>420</v>
-      </c>
-      <c r="C102" s="13" t="s">
-        <v>22</v>
-      </c>
       <c r="D102" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="E102" s="6"/>
+        <v>123</v>
+      </c>
+      <c r="E102" s="7"/>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B103" s="13" t="s">
-        <v>421</v>
-      </c>
-      <c r="C103" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E103" s="6"/>
+      <c r="B103" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="C103" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E103" s="7"/>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E104" s="6"/>
+      <c r="E104" s="7"/>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E105" s="6"/>
+      <c r="E105" s="7"/>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E106" s="6"/>
+      <c r="E106" s="7"/>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E107" s="6"/>
+      <c r="E107" s="7"/>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E108" s="6"/>
+      <c r="E108" s="7"/>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E109" s="6"/>
+      <c r="E109" s="7"/>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E110" s="6"/>
+      <c r="E110" s="7"/>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E111" s="6"/>
+      <c r="E111" s="7"/>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E112" s="6"/>
+      <c r="E112" s="7"/>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E113" s="6"/>
+      <c r="E113" s="7"/>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E114" s="6"/>
+      <c r="E114" s="7"/>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E115" s="6"/>
+      <c r="E115" s="7"/>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E116" s="6"/>
+      <c r="E116" s="7"/>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E117" s="6"/>
+      <c r="E117" s="7"/>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E118" s="6"/>
+      <c r="E118" s="7"/>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E119" s="6"/>
+      <c r="E119" s="7"/>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E120" s="6"/>
+      <c r="E120" s="7"/>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E121" s="6"/>
+      <c r="E121" s="7"/>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E122" s="6"/>
+      <c r="E122" s="7"/>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E123" s="6"/>
+      <c r="E123" s="7"/>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E124" s="6"/>
+      <c r="E124" s="7"/>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E125" s="6"/>
+      <c r="E125" s="7"/>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E126" s="6"/>
+      <c r="E126" s="7"/>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E127" s="6"/>
+      <c r="E127" s="7"/>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E128" s="6"/>
+      <c r="E128" s="7"/>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E129" s="6"/>
+      <c r="E129" s="7"/>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E130" s="6"/>
+      <c r="E130" s="7"/>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E131" s="6"/>
+      <c r="E131" s="7"/>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E132" s="6"/>
+      <c r="E132" s="7"/>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E133" s="6"/>
+      <c r="E133" s="7"/>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E134" s="6"/>
+      <c r="E134" s="7"/>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E135" s="6"/>
+      <c r="E135" s="7"/>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E136" s="6"/>
+      <c r="E136" s="7"/>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E137" s="6"/>
+      <c r="E137" s="7"/>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E138" s="6"/>
+      <c r="E138" s="7"/>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E139" s="6"/>
+      <c r="E139" s="7"/>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E140" s="6"/>
+      <c r="E140" s="7"/>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E141" s="6"/>
+      <c r="E141" s="7"/>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E142" s="6"/>
+      <c r="E142" s="7"/>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E143" s="6"/>
+      <c r="E143" s="7"/>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E144" s="6"/>
+      <c r="E144" s="7"/>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E145" s="6"/>
+      <c r="E145" s="7"/>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E146" s="6"/>
+      <c r="E146" s="7"/>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E147" s="6"/>
+      <c r="E147" s="7"/>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E148" s="6"/>
+      <c r="E148" s="7"/>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E149" s="6"/>
+      <c r="E149" s="7"/>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E150" s="6"/>
+      <c r="E150" s="7"/>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E151" s="6"/>
+      <c r="E151" s="7"/>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E152" s="6"/>
+      <c r="E152" s="7"/>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E153" s="6"/>
+      <c r="E153" s="7"/>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E154" s="6"/>
+      <c r="E154" s="7"/>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E155" s="6"/>
+      <c r="E155" s="7"/>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E156" s="6"/>
+      <c r="E156" s="7"/>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E157" s="6"/>
+      <c r="E157" s="7"/>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E158" s="6"/>
+      <c r="E158" s="7"/>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E159" s="6"/>
+      <c r="E159" s="7"/>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E160" s="6"/>
+      <c r="E160" s="7"/>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E161" s="6"/>
+      <c r="E161" s="7"/>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E162" s="6"/>
+      <c r="E162" s="7"/>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E163" s="6"/>
+      <c r="E163" s="7"/>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E164" s="6"/>
+      <c r="E164" s="7"/>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E165" s="6"/>
+      <c r="E165" s="7"/>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E166" s="6"/>
+      <c r="E166" s="7"/>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E167" s="6"/>
+      <c r="E167" s="7"/>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E168" s="6"/>
+      <c r="E168" s="7"/>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E169" s="6"/>
+      <c r="E169" s="7"/>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E170" s="6"/>
+      <c r="E170" s="7"/>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E171" s="6"/>
+      <c r="E171" s="7"/>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E172" s="6"/>
+      <c r="E172" s="7"/>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E173" s="6"/>
+      <c r="E173" s="7"/>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E174" s="6"/>
+      <c r="E174" s="7"/>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E175" s="6"/>
+      <c r="E175" s="7"/>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E176" s="6"/>
+      <c r="E176" s="7"/>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E177" s="6"/>
+      <c r="E177" s="7"/>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E178" s="6"/>
+      <c r="E178" s="7"/>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E179" s="6"/>
+      <c r="E179" s="7"/>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E180" s="6"/>
+      <c r="E180" s="7"/>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E181" s="6"/>
+      <c r="E181" s="7"/>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E182" s="6"/>
+      <c r="E182" s="7"/>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E183" s="6"/>
+      <c r="E183" s="7"/>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E184" s="6"/>
+      <c r="E184" s="7"/>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E185" s="6"/>
+      <c r="E185" s="7"/>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E186" s="6"/>
+      <c r="E186" s="7"/>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E187" s="6"/>
+      <c r="E187" s="7"/>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E188" s="6"/>
+      <c r="E188" s="7"/>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E189" s="6"/>
+      <c r="E189" s="7"/>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E190" s="6"/>
+      <c r="E190" s="7"/>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E191" s="6"/>
+      <c r="E191" s="7"/>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E192" s="6"/>
+      <c r="E192" s="7"/>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E193" s="6"/>
+      <c r="E193" s="7"/>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E194" s="6"/>
+      <c r="E194" s="7"/>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E195" s="6"/>
+      <c r="E195" s="7"/>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E196" s="6"/>
+      <c r="E196" s="7"/>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E197" s="6"/>
+      <c r="E197" s="7"/>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E198" s="6"/>
+      <c r="E198" s="7"/>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E199" s="6"/>
+      <c r="E199" s="7"/>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E200" s="6"/>
+      <c r="E200" s="7"/>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E201" s="6"/>
+      <c r="E201" s="7"/>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E202" s="6"/>
+      <c r="E202" s="7"/>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E203" s="6"/>
+      <c r="E203" s="7"/>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E204" s="6"/>
+      <c r="E204" s="7"/>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E205" s="6"/>
+      <c r="E205" s="7"/>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E206" s="6"/>
+      <c r="E206" s="7"/>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E207" s="6"/>
+      <c r="E207" s="7"/>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E208" s="6"/>
+      <c r="E208" s="7"/>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E209" s="6"/>
+      <c r="E209" s="7"/>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E210" s="6"/>
+      <c r="E210" s="7"/>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E211" s="6"/>
+      <c r="E211" s="7"/>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E212" s="6"/>
+      <c r="E212" s="7"/>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E213" s="6"/>
+      <c r="E213" s="7"/>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E214" s="6"/>
+      <c r="E214" s="7"/>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E215" s="6"/>
+      <c r="E215" s="7"/>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E216" s="6"/>
+      <c r="E216" s="7"/>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E217" s="6"/>
+      <c r="E217" s="7"/>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E218" s="6"/>
+      <c r="E218" s="7"/>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E219" s="6"/>
+      <c r="E219" s="7"/>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E220" s="6"/>
+      <c r="E220" s="7"/>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E221" s="6"/>
+      <c r="E221" s="7"/>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E222" s="6"/>
+      <c r="E222" s="7"/>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E223" s="6"/>
+      <c r="E223" s="7"/>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E224" s="6"/>
+      <c r="E224" s="7"/>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E225" s="6"/>
+      <c r="E225" s="7"/>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E226" s="6"/>
+      <c r="E226" s="7"/>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E227" s="6"/>
+      <c r="E227" s="7"/>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E228" s="6"/>
+      <c r="E228" s="7"/>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E229" s="6"/>
+      <c r="E229" s="7"/>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E230" s="6"/>
+      <c r="E230" s="7"/>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E231" s="6"/>
+      <c r="E231" s="7"/>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E232" s="6"/>
+      <c r="E232" s="7"/>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E233" s="6"/>
+      <c r="E233" s="7"/>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E234" s="6"/>
+      <c r="E234" s="7"/>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E235" s="6"/>
+      <c r="E235" s="7"/>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E236" s="6"/>
+      <c r="E236" s="7"/>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E237" s="6"/>
+      <c r="E237" s="7"/>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E238" s="6"/>
+      <c r="E238" s="7"/>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E239" s="6"/>
+      <c r="E239" s="7"/>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E240" s="6"/>
+      <c r="E240" s="7"/>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E241" s="6"/>
+      <c r="E241" s="7"/>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E242" s="6"/>
+      <c r="E242" s="7"/>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E243" s="6"/>
+      <c r="E243" s="7"/>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E244" s="6"/>
+      <c r="E244" s="7"/>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E245" s="6"/>
+      <c r="E245" s="7"/>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E246" s="6"/>
+      <c r="E246" s="7"/>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E247" s="6"/>
+      <c r="E247" s="7"/>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E248" s="6"/>
+      <c r="E248" s="7"/>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E249" s="6"/>
+      <c r="E249" s="7"/>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E250" s="6"/>
+      <c r="E250" s="7"/>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E251" s="6"/>
+      <c r="E251" s="7"/>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E252" s="6"/>
+      <c r="E252" s="7"/>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E253" s="6"/>
+      <c r="E253" s="7"/>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E254" s="6"/>
+      <c r="E254" s="7"/>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E255" s="6"/>
+      <c r="E255" s="7"/>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E256" s="6"/>
+      <c r="E256" s="7"/>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E257" s="6"/>
+      <c r="E257" s="7"/>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E258" s="6"/>
+      <c r="E258" s="7"/>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E259" s="6"/>
+      <c r="E259" s="7"/>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E260" s="6"/>
+      <c r="E260" s="7"/>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E261" s="6"/>
+      <c r="E261" s="7"/>
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E262" s="6"/>
+      <c r="E262" s="7"/>
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E263" s="6"/>
+      <c r="E263" s="7"/>
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E264" s="6"/>
+      <c r="E264" s="7"/>
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E265" s="6"/>
+      <c r="E265" s="7"/>
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E266" s="6"/>
+      <c r="E266" s="7"/>
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E267" s="6"/>
+      <c r="E267" s="7"/>
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E268" s="6"/>
+      <c r="E268" s="7"/>
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E269" s="6"/>
+      <c r="E269" s="7"/>
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E270" s="6"/>
+      <c r="E270" s="7"/>
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E271" s="6"/>
+      <c r="E271" s="7"/>
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E272" s="6"/>
+      <c r="E272" s="7"/>
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E273" s="6"/>
+      <c r="E273" s="7"/>
     </row>
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E274" s="6"/>
+      <c r="E274" s="7"/>
     </row>
     <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E275" s="6"/>
+      <c r="E275" s="7"/>
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E276" s="6"/>
+      <c r="E276" s="7"/>
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E277" s="6"/>
+      <c r="E277" s="7"/>
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E278" s="6"/>
+      <c r="E278" s="7"/>
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E279" s="6"/>
+      <c r="E279" s="7"/>
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E280" s="6"/>
+      <c r="E280" s="7"/>
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E281" s="6"/>
+      <c r="E281" s="7"/>
     </row>
     <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E282" s="6"/>
+      <c r="E282" s="7"/>
     </row>
     <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E283" s="6"/>
+      <c r="E283" s="7"/>
     </row>
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E284" s="6"/>
+      <c r="E284" s="7"/>
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E285" s="6"/>
+      <c r="E285" s="7"/>
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E286" s="6"/>
+      <c r="E286" s="7"/>
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E287" s="6"/>
+      <c r="E287" s="7"/>
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E288" s="6"/>
+      <c r="E288" s="7"/>
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E289" s="6"/>
+      <c r="E289" s="7"/>
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E290" s="6"/>
+      <c r="E290" s="7"/>
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E291" s="6"/>
+      <c r="E291" s="7"/>
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E292" s="6"/>
+      <c r="E292" s="7"/>
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E293" s="6"/>
+      <c r="E293" s="7"/>
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E294" s="6"/>
+      <c r="E294" s="7"/>
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E295" s="6"/>
+      <c r="E295" s="7"/>
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E296" s="6"/>
+      <c r="E296" s="7"/>
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E297" s="6"/>
+      <c r="E297" s="7"/>
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E298" s="6"/>
+      <c r="E298" s="7"/>
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E299" s="6"/>
+      <c r="E299" s="7"/>
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E300" s="6"/>
+      <c r="E300" s="7"/>
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E301" s="6"/>
+      <c r="E301" s="7"/>
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E302" s="6"/>
+      <c r="E302" s="7"/>
     </row>
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E303" s="6"/>
+      <c r="E303" s="7"/>
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E304" s="6"/>
+      <c r="E304" s="7"/>
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E305" s="6"/>
+      <c r="E305" s="7"/>
     </row>
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E306" s="6"/>
+      <c r="E306" s="7"/>
     </row>
     <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E307" s="6"/>
+      <c r="E307" s="7"/>
     </row>
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E308" s="6"/>
+      <c r="E308" s="7"/>
     </row>
     <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E309" s="6"/>
+      <c r="E309" s="7"/>
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E310" s="6"/>
+      <c r="E310" s="7"/>
     </row>
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E311" s="6"/>
+      <c r="E311" s="7"/>
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E312" s="6"/>
+      <c r="E312" s="7"/>
     </row>
     <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E313" s="6"/>
+      <c r="E313" s="7"/>
     </row>
     <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E314" s="6"/>
+      <c r="E314" s="7"/>
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E315" s="6"/>
+      <c r="E315" s="7"/>
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E316" s="6"/>
+      <c r="E316" s="7"/>
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E317" s="6"/>
+      <c r="E317" s="7"/>
     </row>
     <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E318" s="6"/>
+      <c r="E318" s="7"/>
     </row>
     <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E319" s="6"/>
+      <c r="E319" s="7"/>
     </row>
     <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E320" s="6"/>
+      <c r="E320" s="7"/>
     </row>
     <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E321" s="6"/>
+      <c r="E321" s="7"/>
     </row>
     <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E322" s="6"/>
+      <c r="E322" s="7"/>
     </row>
     <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E323" s="6"/>
+      <c r="E323" s="7"/>
     </row>
     <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E324" s="6"/>
+      <c r="E324" s="7"/>
     </row>
     <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E325" s="6"/>
+      <c r="E325" s="7"/>
     </row>
     <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E326" s="6"/>
+      <c r="E326" s="7"/>
     </row>
     <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E327" s="6"/>
+      <c r="E327" s="7"/>
     </row>
     <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E328" s="6"/>
+      <c r="E328" s="7"/>
     </row>
     <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E329" s="6"/>
+      <c r="E329" s="7"/>
     </row>
     <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E330" s="6"/>
+      <c r="E330" s="7"/>
     </row>
     <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E331" s="6"/>
+      <c r="E331" s="7"/>
     </row>
     <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E332" s="6"/>
+      <c r="E332" s="7"/>
     </row>
     <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E333" s="6"/>
+      <c r="E333" s="7"/>
     </row>
     <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E334" s="6"/>
+      <c r="E334" s="7"/>
     </row>
     <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E335" s="6"/>
+      <c r="E335" s="7"/>
     </row>
     <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E336" s="6"/>
+      <c r="E336" s="7"/>
     </row>
     <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E337" s="6"/>
+      <c r="E337" s="7"/>
     </row>
     <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E338" s="6"/>
+      <c r="E338" s="7"/>
     </row>
     <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E339" s="6"/>
+      <c r="E339" s="7"/>
     </row>
     <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E340" s="6"/>
+      <c r="E340" s="7"/>
     </row>
     <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E341" s="6"/>
+      <c r="E341" s="7"/>
     </row>
     <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E342" s="6"/>
+      <c r="E342" s="7"/>
     </row>
     <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E343" s="6"/>
+      <c r="E343" s="7"/>
     </row>
     <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E344" s="6"/>
+      <c r="E344" s="7"/>
     </row>
     <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E345" s="6"/>
+      <c r="E345" s="7"/>
     </row>
     <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E346" s="6"/>
+      <c r="E346" s="7"/>
     </row>
     <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E347" s="6"/>
+      <c r="E347" s="7"/>
     </row>
     <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E348" s="6"/>
+      <c r="E348" s="7"/>
     </row>
     <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E349" s="6"/>
+      <c r="E349" s="7"/>
     </row>
     <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E350" s="6"/>
+      <c r="E350" s="7"/>
     </row>
     <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E351" s="6"/>
+      <c r="E351" s="7"/>
     </row>
     <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E352" s="6"/>
+      <c r="E352" s="7"/>
     </row>
     <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E353" s="6"/>
+      <c r="E353" s="7"/>
     </row>
     <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E354" s="6"/>
+      <c r="E354" s="7"/>
     </row>
     <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E355" s="6"/>
+      <c r="E355" s="7"/>
     </row>
     <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E356" s="6"/>
+      <c r="E356" s="7"/>
     </row>
     <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E357" s="6"/>
+      <c r="E357" s="7"/>
     </row>
     <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E358" s="6"/>
+      <c r="E358" s="7"/>
     </row>
     <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E359" s="6"/>
+      <c r="E359" s="7"/>
     </row>
     <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E360" s="6"/>
+      <c r="E360" s="7"/>
     </row>
     <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E361" s="6"/>
+      <c r="E361" s="7"/>
     </row>
     <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E362" s="6"/>
+      <c r="E362" s="7"/>
     </row>
     <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E363" s="6"/>
+      <c r="E363" s="7"/>
     </row>
     <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E364" s="6"/>
+      <c r="E364" s="7"/>
     </row>
     <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E365" s="6"/>
+      <c r="E365" s="7"/>
     </row>
     <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E366" s="6"/>
+      <c r="E366" s="7"/>
     </row>
     <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E367" s="6"/>
+      <c r="E367" s="7"/>
     </row>
     <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E368" s="6"/>
+      <c r="E368" s="7"/>
     </row>
     <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E369" s="6"/>
+      <c r="E369" s="7"/>
     </row>
     <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E370" s="6"/>
+      <c r="E370" s="7"/>
     </row>
     <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E371" s="6"/>
+      <c r="E371" s="7"/>
     </row>
     <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E372" s="6"/>
+      <c r="E372" s="7"/>
     </row>
     <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E373" s="6"/>
+      <c r="E373" s="7"/>
     </row>
     <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E374" s="6"/>
+      <c r="E374" s="7"/>
     </row>
     <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E375" s="6"/>
+      <c r="E375" s="7"/>
     </row>
     <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E376" s="6"/>
+      <c r="E376" s="7"/>
     </row>
     <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E377" s="6"/>
+      <c r="E377" s="7"/>
     </row>
     <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E378" s="6"/>
+      <c r="E378" s="7"/>
     </row>
     <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E379" s="6"/>
+      <c r="E379" s="7"/>
     </row>
     <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E380" s="6"/>
+      <c r="E380" s="7"/>
     </row>
     <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E381" s="6"/>
+      <c r="E381" s="7"/>
     </row>
     <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E382" s="6"/>
+      <c r="E382" s="7"/>
     </row>
     <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E383" s="6"/>
+      <c r="E383" s="7"/>
     </row>
     <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E384" s="6"/>
+      <c r="E384" s="7"/>
     </row>
     <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E385" s="6"/>
+      <c r="E385" s="7"/>
     </row>
     <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E386" s="6"/>
+      <c r="E386" s="7"/>
     </row>
     <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E387" s="6"/>
+      <c r="E387" s="7"/>
     </row>
     <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E388" s="6"/>
+      <c r="E388" s="7"/>
     </row>
     <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E389" s="6"/>
+      <c r="E389" s="7"/>
     </row>
     <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E390" s="6"/>
+      <c r="E390" s="7"/>
     </row>
     <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E391" s="6"/>
+      <c r="E391" s="7"/>
     </row>
     <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E392" s="6"/>
+      <c r="E392" s="7"/>
     </row>
     <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E393" s="6"/>
+      <c r="E393" s="7"/>
     </row>
     <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E394" s="6"/>
+      <c r="E394" s="7"/>
     </row>
     <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E395" s="6"/>
+      <c r="E395" s="7"/>
     </row>
     <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E396" s="6"/>
+      <c r="E396" s="7"/>
     </row>
     <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E397" s="6"/>
+      <c r="E397" s="7"/>
     </row>
     <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E398" s="6"/>
+      <c r="E398" s="7"/>
     </row>
     <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E399" s="6"/>
+      <c r="E399" s="7"/>
     </row>
     <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E400" s="6"/>
+      <c r="E400" s="7"/>
     </row>
     <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E401" s="6"/>
+      <c r="E401" s="7"/>
     </row>
     <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E402" s="6"/>
+      <c r="E402" s="7"/>
     </row>
     <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E403" s="6"/>
+      <c r="E403" s="7"/>
     </row>
     <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E404" s="6"/>
+      <c r="E404" s="7"/>
     </row>
     <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E405" s="6"/>
+      <c r="E405" s="7"/>
     </row>
     <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E406" s="6"/>
+      <c r="E406" s="7"/>
     </row>
     <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E407" s="6"/>
+      <c r="E407" s="7"/>
     </row>
     <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E408" s="6"/>
+      <c r="E408" s="7"/>
     </row>
     <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E409" s="6"/>
+      <c r="E409" s="7"/>
     </row>
     <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E410" s="6"/>
+      <c r="E410" s="7"/>
     </row>
     <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E411" s="6"/>
+      <c r="E411" s="7"/>
     </row>
     <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E412" s="6"/>
+      <c r="E412" s="7"/>
     </row>
     <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E413" s="6"/>
+      <c r="E413" s="7"/>
     </row>
     <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E414" s="6"/>
+      <c r="E414" s="7"/>
     </row>
     <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E415" s="6"/>
+      <c r="E415" s="7"/>
     </row>
     <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E416" s="6"/>
+      <c r="E416" s="7"/>
     </row>
     <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E417" s="6"/>
+      <c r="E417" s="7"/>
     </row>
     <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E418" s="6"/>
+      <c r="E418" s="7"/>
     </row>
     <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E419" s="6"/>
+      <c r="E419" s="7"/>
     </row>
     <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E420" s="6"/>
+      <c r="E420" s="7"/>
     </row>
     <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E421" s="6"/>
+      <c r="E421" s="7"/>
     </row>
     <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E422" s="6"/>
+      <c r="E422" s="7"/>
     </row>
     <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E423" s="6"/>
+      <c r="E423" s="7"/>
     </row>
     <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E424" s="6"/>
+      <c r="E424" s="7"/>
     </row>
     <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E425" s="6"/>
+      <c r="E425" s="7"/>
     </row>
     <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E426" s="6"/>
+      <c r="E426" s="7"/>
     </row>
     <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E427" s="6"/>
+      <c r="E427" s="7"/>
     </row>
     <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E428" s="6"/>
+      <c r="E428" s="7"/>
     </row>
     <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E429" s="6"/>
+      <c r="E429" s="7"/>
     </row>
     <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E430" s="6"/>
+      <c r="E430" s="7"/>
     </row>
     <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E431" s="6"/>
+      <c r="E431" s="7"/>
     </row>
     <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E432" s="6"/>
+      <c r="E432" s="7"/>
     </row>
     <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E433" s="6"/>
+      <c r="E433" s="7"/>
     </row>
     <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E434" s="6"/>
+      <c r="E434" s="7"/>
     </row>
     <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E435" s="6"/>
+      <c r="E435" s="7"/>
     </row>
     <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E436" s="6"/>
+      <c r="E436" s="7"/>
     </row>
     <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E437" s="6"/>
+      <c r="E437" s="7"/>
     </row>
     <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E438" s="6"/>
+      <c r="E438" s="7"/>
     </row>
     <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E439" s="6"/>
+      <c r="E439" s="7"/>
     </row>
     <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E440" s="6"/>
+      <c r="E440" s="7"/>
     </row>
     <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E441" s="6"/>
+      <c r="E441" s="7"/>
     </row>
     <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E442" s="6"/>
+      <c r="E442" s="7"/>
     </row>
     <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E443" s="6"/>
+      <c r="E443" s="7"/>
     </row>
     <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E444" s="6"/>
+      <c r="E444" s="7"/>
     </row>
     <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E445" s="6"/>
+      <c r="E445" s="7"/>
     </row>
     <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E446" s="6"/>
+      <c r="E446" s="7"/>
     </row>
     <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E447" s="6"/>
+      <c r="E447" s="7"/>
     </row>
     <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E448" s="6"/>
+      <c r="E448" s="7"/>
     </row>
     <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E449" s="6"/>
+      <c r="E449" s="7"/>
     </row>
     <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E450" s="6"/>
+      <c r="E450" s="7"/>
     </row>
     <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E451" s="6"/>
+      <c r="E451" s="7"/>
     </row>
     <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E452" s="6"/>
+      <c r="E452" s="7"/>
     </row>
     <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E453" s="6"/>
+      <c r="E453" s="7"/>
     </row>
     <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E454" s="6"/>
+      <c r="E454" s="7"/>
     </row>
     <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E455" s="6"/>
+      <c r="E455" s="7"/>
     </row>
     <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E456" s="6"/>
+      <c r="E456" s="7"/>
     </row>
     <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E457" s="6"/>
+      <c r="E457" s="7"/>
     </row>
     <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E458" s="6"/>
+      <c r="E458" s="7"/>
     </row>
     <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E459" s="6"/>
+      <c r="E459" s="7"/>
     </row>
     <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E460" s="6"/>
+      <c r="E460" s="7"/>
     </row>
     <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E461" s="6"/>
+      <c r="E461" s="7"/>
     </row>
     <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E462" s="6"/>
+      <c r="E462" s="7"/>
     </row>
     <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E463" s="6"/>
+      <c r="E463" s="7"/>
     </row>
     <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E464" s="6"/>
+      <c r="E464" s="7"/>
     </row>
     <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E465" s="6"/>
+      <c r="E465" s="7"/>
     </row>
     <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E466" s="6"/>
+      <c r="E466" s="7"/>
     </row>
     <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E467" s="6"/>
+      <c r="E467" s="7"/>
     </row>
     <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E468" s="6"/>
+      <c r="E468" s="7"/>
     </row>
     <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E469" s="6"/>
+      <c r="E469" s="7"/>
     </row>
     <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E470" s="6"/>
+      <c r="E470" s="7"/>
     </row>
     <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E471" s="6"/>
+      <c r="E471" s="7"/>
     </row>
     <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E472" s="6"/>
+      <c r="E472" s="7"/>
     </row>
     <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E473" s="6"/>
+      <c r="E473" s="7"/>
     </row>
     <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E474" s="6"/>
+      <c r="E474" s="7"/>
     </row>
     <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E475" s="6"/>
+      <c r="E475" s="7"/>
     </row>
     <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E476" s="6"/>
+      <c r="E476" s="7"/>
     </row>
     <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E477" s="6"/>
+      <c r="E477" s="7"/>
     </row>
     <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E478" s="6"/>
+      <c r="E478" s="7"/>
     </row>
     <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E479" s="6"/>
+      <c r="E479" s="7"/>
     </row>
     <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E480" s="6"/>
+      <c r="E480" s="7"/>
     </row>
     <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E481" s="6"/>
+      <c r="E481" s="7"/>
     </row>
     <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E482" s="6"/>
+      <c r="E482" s="7"/>
     </row>
     <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E483" s="6"/>
+      <c r="E483" s="7"/>
     </row>
     <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E484" s="6"/>
+      <c r="E484" s="7"/>
     </row>
     <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E485" s="6"/>
+      <c r="E485" s="7"/>
     </row>
     <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E486" s="6"/>
+      <c r="E486" s="7"/>
     </row>
     <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E487" s="6"/>
+      <c r="E487" s="7"/>
     </row>
     <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E488" s="6"/>
+      <c r="E488" s="7"/>
     </row>
     <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E489" s="6"/>
+      <c r="E489" s="7"/>
     </row>
     <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E490" s="6"/>
+      <c r="E490" s="7"/>
     </row>
     <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E491" s="6"/>
+      <c r="E491" s="7"/>
     </row>
     <row r="492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E492" s="6"/>
+      <c r="E492" s="7"/>
     </row>
     <row r="493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E493" s="6"/>
+      <c r="E493" s="7"/>
     </row>
     <row r="494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E494" s="6"/>
+      <c r="E494" s="7"/>
     </row>
     <row r="495" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E495" s="6"/>
+      <c r="E495" s="7"/>
     </row>
     <row r="496" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E496" s="6"/>
+      <c r="E496" s="7"/>
     </row>
     <row r="497" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E497" s="6"/>
+      <c r="E497" s="7"/>
     </row>
     <row r="498" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E498" s="6"/>
+      <c r="E498" s="7"/>
     </row>
     <row r="499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E499" s="6"/>
+      <c r="E499" s="7"/>
     </row>
     <row r="500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E500" s="6"/>
+      <c r="E500" s="7"/>
     </row>
     <row r="501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E501" s="6"/>
+      <c r="E501" s="7"/>
     </row>
     <row r="502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E502" s="6"/>
+      <c r="E502" s="7"/>
     </row>
     <row r="503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E503" s="6"/>
+      <c r="E503" s="7"/>
     </row>
     <row r="504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E504" s="6"/>
+      <c r="E504" s="7"/>
     </row>
     <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E505" s="6"/>
+      <c r="E505" s="7"/>
     </row>
     <row r="506" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E506" s="6"/>
+      <c r="E506" s="7"/>
     </row>
     <row r="507" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E507" s="6"/>
+      <c r="E507" s="7"/>
     </row>
     <row r="508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E508" s="6"/>
+      <c r="E508" s="7"/>
     </row>
     <row r="509" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E509" s="6"/>
+      <c r="E509" s="7"/>
     </row>
     <row r="510" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E510" s="6"/>
+      <c r="E510" s="7"/>
     </row>
     <row r="511" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E511" s="6"/>
+      <c r="E511" s="7"/>
     </row>
     <row r="512" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E512" s="6"/>
+      <c r="E512" s="7"/>
     </row>
     <row r="513" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E513" s="6"/>
+      <c r="E513" s="7"/>
     </row>
     <row r="514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E514" s="6"/>
+      <c r="E514" s="7"/>
     </row>
     <row r="515" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E515" s="6"/>
+      <c r="E515" s="7"/>
     </row>
     <row r="516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E516" s="6"/>
+      <c r="E516" s="7"/>
     </row>
     <row r="517" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E517" s="6"/>
+      <c r="E517" s="7"/>
     </row>
     <row r="518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E518" s="6"/>
+      <c r="E518" s="7"/>
     </row>
     <row r="519" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E519" s="6"/>
+      <c r="E519" s="7"/>
     </row>
     <row r="520" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E520" s="6"/>
+      <c r="E520" s="7"/>
     </row>
     <row r="521" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E521" s="6"/>
+      <c r="E521" s="7"/>
     </row>
     <row r="522" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E522" s="6"/>
+      <c r="E522" s="7"/>
     </row>
     <row r="523" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E523" s="6"/>
+      <c r="E523" s="7"/>
     </row>
     <row r="524" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E524" s="6"/>
+      <c r="E524" s="7"/>
     </row>
     <row r="525" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E525" s="6"/>
+      <c r="E525" s="7"/>
     </row>
     <row r="526" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E526" s="6"/>
+      <c r="E526" s="7"/>
     </row>
     <row r="527" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E527" s="6"/>
+      <c r="E527" s="7"/>
     </row>
     <row r="528" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E528" s="6"/>
+      <c r="E528" s="7"/>
     </row>
     <row r="529" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E529" s="6"/>
+      <c r="E529" s="7"/>
     </row>
     <row r="530" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E530" s="6"/>
+      <c r="E530" s="7"/>
     </row>
     <row r="531" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E531" s="6"/>
+      <c r="E531" s="7"/>
     </row>
     <row r="532" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E532" s="6"/>
+      <c r="E532" s="7"/>
     </row>
     <row r="533" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E533" s="6"/>
+      <c r="E533" s="7"/>
     </row>
     <row r="534" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E534" s="6"/>
+      <c r="E534" s="7"/>
     </row>
     <row r="535" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E535" s="6"/>
+      <c r="E535" s="7"/>
     </row>
     <row r="536" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E536" s="6"/>
+      <c r="E536" s="7"/>
     </row>
     <row r="537" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E537" s="6"/>
+      <c r="E537" s="7"/>
     </row>
     <row r="538" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E538" s="6"/>
+      <c r="E538" s="7"/>
     </row>
     <row r="539" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E539" s="6"/>
+      <c r="E539" s="7"/>
     </row>
     <row r="540" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E540" s="6"/>
+      <c r="E540" s="7"/>
     </row>
     <row r="541" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E541" s="6"/>
+      <c r="E541" s="7"/>
     </row>
     <row r="542" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E542" s="6"/>
+      <c r="E542" s="7"/>
     </row>
     <row r="543" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E543" s="6"/>
+      <c r="E543" s="7"/>
     </row>
     <row r="544" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E544" s="6"/>
+      <c r="E544" s="7"/>
     </row>
     <row r="545" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E545" s="6"/>
+      <c r="E545" s="7"/>
     </row>
     <row r="546" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E546" s="6"/>
+      <c r="E546" s="7"/>
     </row>
     <row r="547" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E547" s="6"/>
+      <c r="E547" s="7"/>
     </row>
     <row r="548" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E548" s="6"/>
+      <c r="E548" s="7"/>
     </row>
     <row r="549" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E549" s="6"/>
+      <c r="E549" s="7"/>
     </row>
     <row r="550" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E550" s="6"/>
+      <c r="E550" s="7"/>
     </row>
     <row r="551" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E551" s="6"/>
+      <c r="E551" s="7"/>
     </row>
     <row r="552" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E552" s="6"/>
+      <c r="E552" s="7"/>
     </row>
     <row r="553" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E553" s="6"/>
+      <c r="E553" s="7"/>
     </row>
     <row r="554" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E554" s="6"/>
+      <c r="E554" s="7"/>
     </row>
     <row r="555" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E555" s="6"/>
+      <c r="E555" s="7"/>
     </row>
     <row r="556" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E556" s="6"/>
+      <c r="E556" s="7"/>
     </row>
     <row r="557" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E557" s="6"/>
+      <c r="E557" s="7"/>
     </row>
     <row r="558" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E558" s="6"/>
+      <c r="E558" s="7"/>
     </row>
     <row r="559" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E559" s="6"/>
+      <c r="E559" s="7"/>
     </row>
     <row r="560" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E560" s="6"/>
+      <c r="E560" s="7"/>
     </row>
     <row r="561" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E561" s="6"/>
+      <c r="E561" s="7"/>
     </row>
     <row r="562" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E562" s="6"/>
+      <c r="E562" s="7"/>
     </row>
     <row r="563" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E563" s="6"/>
+      <c r="E563" s="7"/>
     </row>
     <row r="564" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E564" s="6"/>
+      <c r="E564" s="7"/>
     </row>
     <row r="565" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E565" s="6"/>
+      <c r="E565" s="7"/>
     </row>
     <row r="566" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E566" s="6"/>
+      <c r="E566" s="7"/>
     </row>
     <row r="567" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E567" s="6"/>
+      <c r="E567" s="7"/>
     </row>
     <row r="568" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E568" s="6"/>
+      <c r="E568" s="7"/>
     </row>
     <row r="569" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E569" s="6"/>
+      <c r="E569" s="7"/>
     </row>
     <row r="570" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E570" s="6"/>
+      <c r="E570" s="7"/>
     </row>
     <row r="571" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E571" s="6"/>
+      <c r="E571" s="7"/>
     </row>
     <row r="572" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E572" s="6"/>
+      <c r="E572" s="7"/>
     </row>
     <row r="573" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E573" s="6"/>
+      <c r="E573" s="7"/>
     </row>
     <row r="574" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E574" s="6"/>
+      <c r="E574" s="7"/>
     </row>
     <row r="575" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E575" s="6"/>
+      <c r="E575" s="7"/>
     </row>
     <row r="576" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E576" s="6"/>
+      <c r="E576" s="7"/>
     </row>
     <row r="577" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E577" s="6"/>
+      <c r="E577" s="7"/>
     </row>
     <row r="578" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E578" s="6"/>
+      <c r="E578" s="7"/>
     </row>
     <row r="579" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E579" s="6"/>
+      <c r="E579" s="7"/>
     </row>
     <row r="580" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E580" s="6"/>
+      <c r="E580" s="7"/>
     </row>
     <row r="581" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E581" s="6"/>
+      <c r="E581" s="7"/>
     </row>
     <row r="582" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E582" s="6"/>
+      <c r="E582" s="7"/>
     </row>
     <row r="583" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E583" s="6"/>
+      <c r="E583" s="7"/>
     </row>
     <row r="584" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E584" s="6"/>
+      <c r="E584" s="7"/>
     </row>
     <row r="585" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E585" s="6"/>
+      <c r="E585" s="7"/>
     </row>
     <row r="586" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E586" s="6"/>
+      <c r="E586" s="7"/>
     </row>
     <row r="587" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E587" s="6"/>
+      <c r="E587" s="7"/>
     </row>
     <row r="588" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E588" s="6"/>
+      <c r="E588" s="7"/>
     </row>
     <row r="589" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E589" s="6"/>
+      <c r="E589" s="7"/>
     </row>
     <row r="590" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E590" s="6"/>
+      <c r="E590" s="7"/>
     </row>
     <row r="591" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E591" s="6"/>
+      <c r="E591" s="7"/>
     </row>
     <row r="592" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E592" s="6"/>
+      <c r="E592" s="7"/>
     </row>
     <row r="593" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E593" s="6"/>
+      <c r="E593" s="7"/>
     </row>
     <row r="594" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E594" s="6"/>
+      <c r="E594" s="7"/>
     </row>
     <row r="595" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E595" s="6"/>
+      <c r="E595" s="7"/>
     </row>
     <row r="596" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E596" s="6"/>
+      <c r="E596" s="7"/>
     </row>
     <row r="597" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E597" s="6"/>
+      <c r="E597" s="7"/>
     </row>
     <row r="598" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E598" s="6"/>
+      <c r="E598" s="7"/>
     </row>
     <row r="599" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E599" s="6"/>
+      <c r="E599" s="7"/>
     </row>
     <row r="600" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E600" s="6"/>
+      <c r="E600" s="7"/>
     </row>
     <row r="601" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E601" s="6"/>
+      <c r="E601" s="7"/>
     </row>
     <row r="602" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E602" s="6"/>
+      <c r="E602" s="7"/>
     </row>
     <row r="603" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E603" s="6"/>
+      <c r="E603" s="7"/>
     </row>
     <row r="604" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E604" s="6"/>
+      <c r="E604" s="7"/>
     </row>
     <row r="605" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E605" s="6"/>
+      <c r="E605" s="7"/>
     </row>
     <row r="606" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E606" s="6"/>
+      <c r="E606" s="7"/>
     </row>
     <row r="607" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E607" s="6"/>
+      <c r="E607" s="7"/>
     </row>
     <row r="608" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E608" s="6"/>
+      <c r="E608" s="7"/>
     </row>
     <row r="609" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E609" s="6"/>
+      <c r="E609" s="7"/>
     </row>
     <row r="610" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E610" s="6"/>
+      <c r="E610" s="7"/>
     </row>
     <row r="611" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E611" s="6"/>
+      <c r="E611" s="7"/>
     </row>
     <row r="612" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E612" s="6"/>
+      <c r="E612" s="7"/>
     </row>
     <row r="613" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E613" s="6"/>
+      <c r="E613" s="7"/>
     </row>
     <row r="614" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E614" s="6"/>
+      <c r="E614" s="7"/>
     </row>
     <row r="615" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E615" s="6"/>
+      <c r="E615" s="7"/>
     </row>
     <row r="616" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E616" s="6"/>
+      <c r="E616" s="7"/>
     </row>
     <row r="617" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E617" s="6"/>
+      <c r="E617" s="7"/>
     </row>
     <row r="618" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E618" s="6"/>
+      <c r="E618" s="7"/>
     </row>
     <row r="619" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E619" s="6"/>
+      <c r="E619" s="7"/>
     </row>
     <row r="620" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E620" s="6"/>
+      <c r="E620" s="7"/>
     </row>
     <row r="621" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E621" s="6"/>
+      <c r="E621" s="7"/>
     </row>
     <row r="622" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E622" s="6"/>
+      <c r="E622" s="7"/>
     </row>
     <row r="623" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E623" s="6"/>
+      <c r="E623" s="7"/>
     </row>
     <row r="624" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E624" s="6"/>
+      <c r="E624" s="7"/>
     </row>
     <row r="625" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E625" s="6"/>
+      <c r="E625" s="7"/>
     </row>
     <row r="626" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E626" s="6"/>
+      <c r="E626" s="7"/>
     </row>
     <row r="627" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E627" s="6"/>
+      <c r="E627" s="7"/>
     </row>
     <row r="628" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E628" s="6"/>
+      <c r="E628" s="7"/>
     </row>
     <row r="629" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E629" s="6"/>
+      <c r="E629" s="7"/>
     </row>
     <row r="630" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E630" s="6"/>
+      <c r="E630" s="7"/>
     </row>
     <row r="631" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E631" s="6"/>
+      <c r="E631" s="7"/>
     </row>
     <row r="632" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E632" s="6"/>
+      <c r="E632" s="7"/>
     </row>
     <row r="633" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E633" s="6"/>
+      <c r="E633" s="7"/>
     </row>
     <row r="634" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E634" s="6"/>
+      <c r="E634" s="7"/>
     </row>
     <row r="635" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E635" s="6"/>
+      <c r="E635" s="7"/>
     </row>
     <row r="636" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E636" s="6"/>
+      <c r="E636" s="7"/>
     </row>
     <row r="637" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E637" s="6"/>
+      <c r="E637" s="7"/>
     </row>
     <row r="638" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E638" s="6"/>
+      <c r="E638" s="7"/>
     </row>
     <row r="639" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E639" s="6"/>
+      <c r="E639" s="7"/>
     </row>
     <row r="640" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E640" s="6"/>
+      <c r="E640" s="7"/>
     </row>
     <row r="641" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E641" s="6"/>
+      <c r="E641" s="7"/>
     </row>
     <row r="642" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E642" s="6"/>
+      <c r="E642" s="7"/>
     </row>
     <row r="643" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E643" s="6"/>
+      <c r="E643" s="7"/>
     </row>
     <row r="644" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E644" s="6"/>
+      <c r="E644" s="7"/>
     </row>
     <row r="645" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E645" s="6"/>
+      <c r="E645" s="7"/>
     </row>
     <row r="646" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E646" s="6"/>
+      <c r="E646" s="7"/>
     </row>
     <row r="647" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E647" s="6"/>
+      <c r="E647" s="7"/>
     </row>
     <row r="648" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E648" s="6"/>
+      <c r="E648" s="7"/>
     </row>
     <row r="649" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E649" s="6"/>
+      <c r="E649" s="7"/>
     </row>
     <row r="650" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E650" s="6"/>
+      <c r="E650" s="7"/>
     </row>
     <row r="651" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E651" s="6"/>
+      <c r="E651" s="7"/>
     </row>
     <row r="652" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E652" s="6"/>
+      <c r="E652" s="7"/>
     </row>
     <row r="653" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E653" s="6"/>
+      <c r="E653" s="7"/>
     </row>
     <row r="654" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E654" s="6"/>
+      <c r="E654" s="7"/>
     </row>
     <row r="655" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E655" s="6"/>
+      <c r="E655" s="7"/>
     </row>
     <row r="656" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E656" s="6"/>
+      <c r="E656" s="7"/>
     </row>
     <row r="657" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E657" s="6"/>
+      <c r="E657" s="7"/>
     </row>
     <row r="658" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E658" s="6"/>
+      <c r="E658" s="7"/>
     </row>
     <row r="659" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E659" s="6"/>
+      <c r="E659" s="7"/>
     </row>
     <row r="660" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E660" s="6"/>
+      <c r="E660" s="7"/>
     </row>
     <row r="661" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E661" s="6"/>
+      <c r="E661" s="7"/>
     </row>
     <row r="662" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E662" s="6"/>
+      <c r="E662" s="7"/>
     </row>
     <row r="663" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E663" s="6"/>
+      <c r="E663" s="7"/>
     </row>
     <row r="664" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E664" s="6"/>
+      <c r="E664" s="7"/>
     </row>
     <row r="665" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E665" s="6"/>
+      <c r="E665" s="7"/>
     </row>
     <row r="666" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E666" s="6"/>
+      <c r="E666" s="7"/>
     </row>
     <row r="667" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E667" s="6"/>
+      <c r="E667" s="7"/>
     </row>
     <row r="668" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E668" s="6"/>
+      <c r="E668" s="7"/>
     </row>
     <row r="669" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E669" s="6"/>
+      <c r="E669" s="7"/>
     </row>
     <row r="670" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E670" s="6"/>
+      <c r="E670" s="7"/>
     </row>
     <row r="671" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E671" s="6"/>
+      <c r="E671" s="7"/>
     </row>
     <row r="672" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E672" s="6"/>
+      <c r="E672" s="7"/>
     </row>
     <row r="673" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E673" s="6"/>
+      <c r="E673" s="7"/>
     </row>
     <row r="674" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E674" s="6"/>
+      <c r="E674" s="7"/>
     </row>
     <row r="675" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E675" s="6"/>
+      <c r="E675" s="7"/>
     </row>
     <row r="676" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E676" s="6"/>
+      <c r="E676" s="7"/>
     </row>
     <row r="677" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E677" s="6"/>
+      <c r="E677" s="7"/>
     </row>
     <row r="678" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E678" s="6"/>
+      <c r="E678" s="7"/>
     </row>
     <row r="679" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E679" s="6"/>
+      <c r="E679" s="7"/>
     </row>
     <row r="680" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E680" s="6"/>
+      <c r="E680" s="7"/>
     </row>
     <row r="681" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E681" s="6"/>
+      <c r="E681" s="7"/>
     </row>
     <row r="682" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E682" s="6"/>
+      <c r="E682" s="7"/>
     </row>
     <row r="683" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E683" s="6"/>
+      <c r="E683" s="7"/>
     </row>
     <row r="684" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E684" s="6"/>
+      <c r="E684" s="7"/>
     </row>
     <row r="685" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E685" s="6"/>
+      <c r="E685" s="7"/>
     </row>
     <row r="686" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E686" s="6"/>
+      <c r="E686" s="7"/>
     </row>
     <row r="687" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E687" s="6"/>
+      <c r="E687" s="7"/>
     </row>
     <row r="688" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E688" s="6"/>
+      <c r="E688" s="7"/>
     </row>
     <row r="689" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E689" s="6"/>
+      <c r="E689" s="7"/>
     </row>
     <row r="690" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E690" s="6"/>
+      <c r="E690" s="7"/>
     </row>
     <row r="691" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E691" s="6"/>
+      <c r="E691" s="7"/>
     </row>
     <row r="692" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E692" s="6"/>
+      <c r="E692" s="7"/>
     </row>
     <row r="693" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E693" s="6"/>
+      <c r="E693" s="7"/>
     </row>
     <row r="694" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E694" s="6"/>
+      <c r="E694" s="7"/>
     </row>
     <row r="695" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E695" s="6"/>
+      <c r="E695" s="7"/>
     </row>
     <row r="696" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E696" s="6"/>
+      <c r="E696" s="7"/>
     </row>
     <row r="697" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E697" s="6"/>
+      <c r="E697" s="7"/>
     </row>
     <row r="698" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E698" s="6"/>
+      <c r="E698" s="7"/>
     </row>
     <row r="699" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E699" s="6"/>
+      <c r="E699" s="7"/>
     </row>
     <row r="700" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E700" s="6"/>
+      <c r="E700" s="7"/>
     </row>
     <row r="701" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E701" s="6"/>
+      <c r="E701" s="7"/>
     </row>
     <row r="702" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E702" s="6"/>
+      <c r="E702" s="7"/>
     </row>
     <row r="703" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E703" s="6"/>
+      <c r="E703" s="7"/>
     </row>
     <row r="704" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E704" s="6"/>
+      <c r="E704" s="7"/>
     </row>
     <row r="705" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E705" s="6"/>
+      <c r="E705" s="7"/>
     </row>
     <row r="706" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E706" s="6"/>
+      <c r="E706" s="7"/>
     </row>
     <row r="707" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E707" s="6"/>
+      <c r="E707" s="7"/>
     </row>
     <row r="708" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E708" s="6"/>
+      <c r="E708" s="7"/>
     </row>
     <row r="709" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E709" s="6"/>
+      <c r="E709" s="7"/>
     </row>
     <row r="710" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E710" s="6"/>
+      <c r="E710" s="7"/>
     </row>
     <row r="711" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E711" s="6"/>
+      <c r="E711" s="7"/>
     </row>
     <row r="712" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E712" s="6"/>
+      <c r="E712" s="7"/>
     </row>
     <row r="713" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E713" s="6"/>
+      <c r="E713" s="7"/>
     </row>
     <row r="714" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E714" s="6"/>
+      <c r="E714" s="7"/>
     </row>
     <row r="715" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E715" s="6"/>
+      <c r="E715" s="7"/>
     </row>
     <row r="716" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E716" s="6"/>
+      <c r="E716" s="7"/>
     </row>
     <row r="717" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E717" s="6"/>
+      <c r="E717" s="7"/>
     </row>
     <row r="718" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E718" s="6"/>
+      <c r="E718" s="7"/>
     </row>
     <row r="719" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E719" s="6"/>
+      <c r="E719" s="7"/>
     </row>
     <row r="720" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E720" s="6"/>
+      <c r="E720" s="7"/>
     </row>
     <row r="721" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E721" s="6"/>
+      <c r="E721" s="7"/>
     </row>
     <row r="722" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E722" s="6"/>
+      <c r="E722" s="7"/>
     </row>
     <row r="723" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E723" s="6"/>
+      <c r="E723" s="7"/>
     </row>
     <row r="724" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E724" s="6"/>
+      <c r="E724" s="7"/>
     </row>
     <row r="725" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E725" s="6"/>
+      <c r="E725" s="7"/>
     </row>
     <row r="726" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E726" s="6"/>
+      <c r="E726" s="7"/>
     </row>
     <row r="727" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E727" s="6"/>
+      <c r="E727" s="7"/>
     </row>
     <row r="728" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E728" s="6"/>
+      <c r="E728" s="7"/>
     </row>
     <row r="729" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E729" s="6"/>
+      <c r="E729" s="7"/>
     </row>
     <row r="730" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E730" s="6"/>
+      <c r="E730" s="7"/>
     </row>
     <row r="731" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E731" s="6"/>
+      <c r="E731" s="7"/>
     </row>
     <row r="732" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E732" s="6"/>
+      <c r="E732" s="7"/>
     </row>
     <row r="733" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E733" s="6"/>
+      <c r="E733" s="7"/>
     </row>
     <row r="734" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E734" s="6"/>
+      <c r="E734" s="7"/>
     </row>
     <row r="735" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E735" s="6"/>
+      <c r="E735" s="7"/>
     </row>
     <row r="736" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E736" s="6"/>
+      <c r="E736" s="7"/>
     </row>
     <row r="737" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E737" s="6"/>
+      <c r="E737" s="7"/>
     </row>
     <row r="738" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E738" s="6"/>
+      <c r="E738" s="7"/>
     </row>
     <row r="739" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E739" s="6"/>
+      <c r="E739" s="7"/>
     </row>
     <row r="740" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E740" s="6"/>
+      <c r="E740" s="7"/>
     </row>
     <row r="741" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E741" s="6"/>
+      <c r="E741" s="7"/>
     </row>
     <row r="742" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E742" s="6"/>
+      <c r="E742" s="7"/>
     </row>
     <row r="743" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E743" s="6"/>
+      <c r="E743" s="7"/>
     </row>
     <row r="744" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E744" s="6"/>
+      <c r="E744" s="7"/>
     </row>
     <row r="745" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E745" s="6"/>
+      <c r="E745" s="7"/>
     </row>
     <row r="746" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E746" s="6"/>
+      <c r="E746" s="7"/>
     </row>
     <row r="747" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E747" s="6"/>
+      <c r="E747" s="7"/>
     </row>
     <row r="748" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E748" s="6"/>
+      <c r="E748" s="7"/>
     </row>
     <row r="749" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E749" s="6"/>
+      <c r="E749" s="7"/>
     </row>
     <row r="750" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E750" s="6"/>
+      <c r="E750" s="7"/>
     </row>
     <row r="751" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E751" s="6"/>
+      <c r="E751" s="7"/>
     </row>
     <row r="752" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E752" s="6"/>
+      <c r="E752" s="7"/>
     </row>
     <row r="753" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E753" s="6"/>
+      <c r="E753" s="7"/>
     </row>
     <row r="754" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E754" s="6"/>
+      <c r="E754" s="7"/>
     </row>
     <row r="755" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E755" s="6"/>
+      <c r="E755" s="7"/>
     </row>
     <row r="756" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E756" s="6"/>
+      <c r="E756" s="7"/>
     </row>
     <row r="757" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E757" s="6"/>
+      <c r="E757" s="7"/>
     </row>
     <row r="758" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E758" s="6"/>
+      <c r="E758" s="7"/>
     </row>
     <row r="759" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E759" s="6"/>
+      <c r="E759" s="7"/>
     </row>
     <row r="760" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E760" s="6"/>
+      <c r="E760" s="7"/>
     </row>
     <row r="761" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E761" s="6"/>
+      <c r="E761" s="7"/>
     </row>
     <row r="762" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E762" s="6"/>
+      <c r="E762" s="7"/>
     </row>
     <row r="763" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E763" s="6"/>
+      <c r="E763" s="7"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -9536,11 +9590,11 @@
   </sheetPr>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.3203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.3046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.93"/>
@@ -9551,122 +9605,122 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="14" t="s">
-        <v>422</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>423</v>
+      <c r="A1" s="15" t="s">
+        <v>431</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>432</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14" t="s">
-        <v>430</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>431</v>
-      </c>
-      <c r="C2" s="14"/>
+      <c r="A2" s="15" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>440</v>
+      </c>
+      <c r="C2" s="15"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="14" t="s">
-        <v>432</v>
-      </c>
-      <c r="B3" s="6" t="n">
+      <c r="A3" s="15" t="s">
+        <v>441</v>
+      </c>
+      <c r="B3" s="7" t="n">
         <v>20210206001</v>
       </c>
-      <c r="C3" s="14"/>
+      <c r="C3" s="15"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14" t="s">
-        <v>433</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>434</v>
-      </c>
-      <c r="C4" s="14"/>
+      <c r="A4" s="15" t="s">
+        <v>442</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>443</v>
+      </c>
+      <c r="C4" s="15"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14" t="s">
-        <v>435</v>
-      </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14" t="s">
-        <v>436</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>436</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>436</v>
+      <c r="A5" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14" t="s">
-        <v>437</v>
-      </c>
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="15" t="s">
+        <v>446</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="14"/>
+      <c r="C6" s="15"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
     </row>
   </sheetData>

--- a/odkx/app/config/tables/hh_member/forms/hh_member_new/hh_member_new.xlsx
+++ b/odkx/app/config/tables/hh_member/forms/hh_member_new/hh_member_new.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="447">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -155,12 +155,6 @@
     <t xml:space="preserve">dob_day</t>
   </si>
   <si>
-    <t xml:space="preserve">data('dob_day') &lt; 32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date_cons</t>
-  </si>
-  <si>
     <t xml:space="preserve">end if</t>
   </si>
   <si>
@@ -185,12 +179,6 @@
     <t xml:space="preserve">dob_month</t>
   </si>
   <si>
-    <t xml:space="preserve">data('dob_month') &lt; 13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">month_cons</t>
-  </si>
-  <si>
     <t xml:space="preserve">dob_month_dk</t>
   </si>
   <si>
@@ -204,12 +192,6 @@
   </si>
   <si>
     <t xml:space="preserve">dob_year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data('dob_year') &gt; 1919 &amp;&amp; data('dob_year') &lt; 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">year_cons</t>
   </si>
   <si>
     <t xml:space="preserve">dob_year_dk</t>
@@ -1704,7 +1686,7 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.3046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.2890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.95"/>
@@ -1754,13 +1736,13 @@
   </sheetPr>
   <dimension ref="A1:P90"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F25" activeCellId="0" sqref="F25"/>
+      <selection pane="bottomLeft" activeCell="B95" activeCellId="0" sqref="B95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.3046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.2890625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.63"/>
@@ -2056,19 +2038,14 @@
       <c r="L12" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="N12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="O12" s="0" t="s">
-        <v>44</v>
-      </c>
+      <c r="N12" s="4"/>
       <c r="P12" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -2085,13 +2062,13 @@
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="F14" s="2"/>
       <c r="H14" s="1"/>
@@ -2112,10 +2089,10 @@
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -2128,7 +2105,7 @@
         <v>26</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="1"/>
@@ -2148,12 +2125,12 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F17" s="2"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J17" s="1" t="n">
         <v>1</v>
@@ -2164,19 +2141,14 @@
       <c r="L17" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="N17" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="O17" s="0" t="s">
-        <v>54</v>
-      </c>
+      <c r="N17" s="4"/>
       <c r="P17" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
@@ -2193,13 +2165,13 @@
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F19" s="2"/>
       <c r="H19" s="1"/>
@@ -2220,10 +2192,10 @@
       <c r="D20" s="1"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -2236,7 +2208,7 @@
         <v>26</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="1"/>
@@ -2257,13 +2229,13 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J22" s="1" t="n">
         <v>1920</v>
@@ -2274,19 +2246,14 @@
       <c r="L22" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="N22" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="O22" s="0" t="s">
-        <v>61</v>
-      </c>
+      <c r="N22" s="4"/>
       <c r="P22" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="2"/>
@@ -2304,13 +2271,13 @@
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -2328,7 +2295,7 @@
         <v>26</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="1"/>
@@ -2345,10 +2312,10 @@
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="0" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -2356,7 +2323,7 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="0" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2367,15 +2334,15 @@
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="J27" s="1" t="n">
         <v>0</v>
@@ -2389,13 +2356,13 @@
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -2410,7 +2377,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="2"/>
@@ -2429,7 +2396,7 @@
         <v>26</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -2439,7 +2406,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="0" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E31" s="0" t="s">
         <v>42</v>
@@ -2450,12 +2417,12 @@
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="0" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -2468,7 +2435,7 @@
         <v>26</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -2478,10 +2445,10 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="0" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -2489,12 +2456,12 @@
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="0" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -2509,16 +2476,16 @@
         <v>22</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H36" s="5"/>
       <c r="I36" s="1" t="s">
@@ -2536,14 +2503,14 @@
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="6" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>27</v>
@@ -2552,12 +2519,12 @@
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="N37" s="0" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2576,7 +2543,7 @@
         <v>26</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -2598,7 +2565,7 @@
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -2618,18 +2585,18 @@
         <v>7</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="N41" s="0" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="O41" s="0" t="s">
         <v>32</v>
@@ -2646,18 +2613,18 @@
         <v>33</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="N42" s="0" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="O42" s="0" t="s">
         <v>36</v>
@@ -2672,7 +2639,7 @@
       <c r="D43" s="1"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" s="1"/>
@@ -2748,7 +2715,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="2"/>
@@ -2766,13 +2733,13 @@
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
@@ -2794,7 +2761,7 @@
       <c r="D49" s="1"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G49" s="2"/>
       <c r="H49" s="1"/>
@@ -2808,7 +2775,7 @@
         <v>26</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="1"/>
@@ -2829,13 +2796,13 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J51" s="1" t="n">
         <v>1</v>
@@ -2852,7 +2819,7 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="2"/>
@@ -2870,13 +2837,13 @@
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -2898,7 +2865,7 @@
       <c r="D54" s="1"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G54" s="2"/>
       <c r="H54" s="1"/>
@@ -2912,7 +2879,7 @@
         <v>26</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="1"/>
@@ -2933,13 +2900,13 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J56" s="1" t="n">
         <v>1920</v>
@@ -2956,7 +2923,7 @@
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="2"/>
@@ -2974,13 +2941,13 @@
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
@@ -2998,7 +2965,7 @@
         <v>26</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="1"/>
@@ -3015,10 +2982,10 @@
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="0" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
@@ -3026,7 +2993,7 @@
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
       <c r="M60" s="0" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3037,15 +3004,15 @@
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G61" s="2"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="J61" s="1" t="n">
         <v>0</v>
@@ -3059,13 +3026,13 @@
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
@@ -3080,7 +3047,7 @@
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="2"/>
@@ -3099,7 +3066,7 @@
         <v>26</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
@@ -3109,7 +3076,7 @@
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C65" s="0" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E65" s="0" t="s">
         <v>42</v>
@@ -3120,12 +3087,12 @@
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
       <c r="M65" s="0" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
@@ -3138,7 +3105,7 @@
         <v>26</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
@@ -3148,10 +3115,10 @@
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C68" s="0" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
@@ -3159,12 +3126,12 @@
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
       <c r="M68" s="0" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
@@ -3179,13 +3146,13 @@
         <v>22</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
@@ -3200,16 +3167,16 @@
         <v>22</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="H71" s="5"/>
       <c r="I71" s="1"/>
@@ -3221,14 +3188,14 @@
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
@@ -3244,10 +3211,10 @@
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
@@ -3266,10 +3233,10 @@
         <v>22</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F74" s="2"/>
       <c r="H74" s="1"/>
@@ -3285,13 +3252,13 @@
         <v>22</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
@@ -3304,7 +3271,7 @@
         <v>26</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -3323,13 +3290,13 @@
         <v>22</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
@@ -3342,7 +3309,7 @@
         <v>26</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -3362,35 +3329,35 @@
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H79" s="6" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
       <c r="N79" s="0" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
@@ -3402,7 +3369,7 @@
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -3418,7 +3385,7 @@
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -3437,7 +3404,7 @@
         <v>26</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -3459,7 +3426,7 @@
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
@@ -3469,7 +3436,7 @@
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -3485,7 +3452,7 @@
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -3504,7 +3471,7 @@
         <v>26</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -3521,11 +3488,11 @@
       <c r="A88" s="2"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
@@ -3535,12 +3502,12 @@
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
       <c r="M88" s="0" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -3556,7 +3523,7 @@
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -3592,7 +3559,7 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.3203125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.3046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.2"/>
@@ -3601,1806 +3568,1806 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="B21" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="B21" s="0" t="s">
-        <v>130</v>
-      </c>
       <c r="C21" s="0" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B35" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="B35" s="0" t="s">
-        <v>142</v>
-      </c>
       <c r="C35" s="0" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="B72" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="B72" s="0" t="s">
-        <v>174</v>
-      </c>
       <c r="C72" s="0" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="B87" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="B87" s="0" t="s">
-        <v>188</v>
-      </c>
       <c r="C87" s="0" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="B104" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="B104" s="0" t="s">
-        <v>205</v>
-      </c>
       <c r="C104" s="0" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="B118" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="B118" s="0" t="s">
-        <v>219</v>
-      </c>
       <c r="C118" s="0" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5408,10 +5375,10 @@
         <v>23</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5419,989 +5386,989 @@
         <v>23</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="B184" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="B184" s="0" t="s">
-        <v>273</v>
-      </c>
       <c r="C184" s="0" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="B196" s="0" t="s">
         <v>280</v>
       </c>
-      <c r="B196" s="0" t="s">
-        <v>286</v>
-      </c>
       <c r="C196" s="0" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="B232" s="0" t="s">
         <v>312</v>
       </c>
-      <c r="B232" s="0" t="s">
-        <v>318</v>
-      </c>
       <c r="C232" s="0" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C233" s="0" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C234" s="0" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C235" s="0" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C236" s="0" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C237" s="0" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C238" s="0" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C239" s="0" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C240" s="0" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="C241" s="0" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="C242" s="0" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="B243" s="0" t="s">
         <v>323</v>
       </c>
-      <c r="B243" s="0" t="s">
-        <v>329</v>
-      </c>
       <c r="C243" s="0" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C244" s="0" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C245" s="0" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C246" s="0" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C247" s="0" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="C248" s="0" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C249" s="0" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C250" s="0" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C251" s="0" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B252" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C252" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C253" s="0" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B254" s="0" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C254" s="0" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B255" s="0" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C255" s="0" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -6422,11 +6389,11 @@
   </sheetPr>
   <dimension ref="A1:E763"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C40" activeCellId="0" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.33984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.3203125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.51"/>
@@ -6438,7 +6405,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>7</v>
@@ -6447,48 +6414,48 @@
         <v>1</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="E2" s="7"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="8" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="E3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="8" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="E4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="8" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="E5" s="7" t="n">
         <v>1</v>
@@ -6496,7 +6463,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="8" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>41</v>
@@ -6505,7 +6472,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="8" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>41</v>
@@ -6514,7 +6481,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="8" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>41</v>
@@ -6523,7 +6490,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="8" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>41</v>
@@ -6532,7 +6499,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="8" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>41</v>
@@ -6541,7 +6508,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="8" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>41</v>
@@ -6550,7 +6517,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="8" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>41</v>
@@ -6559,7 +6526,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>7</v>
@@ -6589,19 +6556,19 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E16" s="7"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>41</v>
@@ -6610,19 +6577,19 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>41</v>
@@ -6631,19 +6598,19 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="9" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E20" s="7"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="9" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>41</v>
@@ -6652,43 +6619,43 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="9" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E22" s="7"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="9" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>22</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E23" s="7"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="9" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>22</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E24" s="7"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="9" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>29</v>
@@ -6697,31 +6664,31 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>22</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="E26" s="7"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="10" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="E27" s="7"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="10" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>41</v>
@@ -6730,88 +6697,88 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="10" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>22</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E29" s="7"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="10" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E30" s="7"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="10" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>22</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E31" s="7"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="E32" s="7"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="11" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="E33" s="7"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="11" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E34" s="7"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="11" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="E35" s="7"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="11" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>41</v>
@@ -6820,31 +6787,31 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="11" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E37" s="7"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="11" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E38" s="7"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="B39" s="12" t="s">
         <v>24</v>
@@ -6859,16 +6826,16 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="12" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E40" s="7"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="12" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C41" s="12" t="s">
         <v>41</v>
@@ -6877,85 +6844,85 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="12" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C42" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E42" s="7"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="12" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C43" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E43" s="7"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="12" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C44" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E44" s="7"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="12" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E45" s="7"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>22</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E46" s="7"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="9" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E47" s="7"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C48" s="13" t="s">
         <v>41</v>
@@ -6964,31 +6931,31 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="13" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E49" s="7"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="13" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="C50" s="13" t="s">
         <v>22</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E50" s="7"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="13" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="C51" s="13" t="s">
         <v>41</v>
@@ -6997,31 +6964,31 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="13" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E52" s="7"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="13" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E53" s="7"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="13" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="C54" s="13" t="s">
         <v>29</v>
@@ -7030,169 +6997,169 @@
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="13" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="C55" s="13" t="s">
         <v>22</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E55" s="7"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="C56" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E56" s="7"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="14" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C57" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E57" s="7"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="14" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="C58" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E58" s="7"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="14" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="E59" s="7"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="14" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="C60" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E60" s="7"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="14" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="E61" s="7"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="14" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="E62" s="7"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="14" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="C63" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="E63" s="7"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="14" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="C64" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="E64" s="7"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="14" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C65" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="E65" s="7"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="14" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="E66" s="7"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="14" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="E67" s="7"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="14" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E68" s="7"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="14" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="C69" s="14" t="s">
         <v>29</v>
@@ -7201,31 +7168,31 @@
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="14" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="C70" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E70" s="7"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="14" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="E71" s="7"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="14" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="C72" s="14" t="s">
         <v>29</v>
@@ -7234,19 +7201,19 @@
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="14" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="E73" s="7"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="14" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="C74" s="14" t="s">
         <v>29</v>
@@ -7255,31 +7222,31 @@
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="14" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="C75" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E75" s="7"/>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="14" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E76" s="7"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="14" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="C77" s="14" t="s">
         <v>29</v>
@@ -7288,175 +7255,175 @@
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="14" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="C78" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E78" s="7"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="14" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="C79" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="E79" s="7"/>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="14" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="C80" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E80" s="7"/>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="14" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="C81" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="E81" s="7"/>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="14" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E82" s="7"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="14" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="E83" s="7"/>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="14" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="C84" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E84" s="7"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="14" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="C85" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E85" s="7"/>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="14" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="C86" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E86" s="7"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="14" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="C87" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="E87" s="7"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="14" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="C88" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E88" s="7"/>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="14" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="C89" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E89" s="7"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="14" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="C90" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="E90" s="7"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="14" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C91" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E91" s="7"/>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="14" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C92" s="14" t="s">
         <v>41</v>
@@ -7465,127 +7432,127 @@
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="14" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="C93" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E93" s="7"/>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="14" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C94" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="E94" s="7"/>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="14" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="C95" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="E95" s="7"/>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="14" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C96" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E96" s="7"/>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="14" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="C97" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="E97" s="7"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="14" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="C98" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="E98" s="7"/>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="14" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="C99" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E99" s="7"/>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="14" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="C100" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E100" s="7"/>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="14" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C101" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="E101" s="7"/>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="14" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C102" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E102" s="7"/>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="14" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C103" s="14" t="s">
         <v>41</v>
@@ -9594,7 +9561,7 @@
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.3046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.2890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.93"/>
@@ -9606,42 +9573,42 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>426</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="G1" s="0" t="s">
         <v>431</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="H1" s="0" t="s">
         <v>432</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>433</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>434</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>435</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>436</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>437</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="15" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="C2" s="15"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="15" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="B3" s="7" t="n">
         <v>20210206001</v>
@@ -9650,31 +9617,31 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="15" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C4" s="15"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="15" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="15" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="15" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>7</v>
@@ -9683,44 +9650,44 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
     </row>
   </sheetData>

--- a/odkx/app/config/tables/hh_member/forms/hh_member_new/hh_member_new.xlsx
+++ b/odkx/app/config/tables/hh_member/forms/hh_member_new/hh_member_new.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="450">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -290,6 +290,12 @@
     <t xml:space="preserve">q22</t>
   </si>
   <si>
+    <t xml:space="preserve">!data('new_member_move_in_date') || !data('new_member_move_in_date').isAfter()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">err_future_date</t>
+  </si>
+  <si>
     <t xml:space="preserve">new_member_move_in_enter</t>
   </si>
   <si>
@@ -327,6 +333,9 @@
   </si>
   <si>
     <t xml:space="preserve">q23ai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not(selected(data('move_from_census_extid_not_possible'), 'not_possible'))</t>
   </si>
   <si>
     <t xml:space="preserve">selected(data('new_member_newborn_or_moved_in'), 'newborn') || /^[A-Z]{3}-[0-9]{3}-[0-9]{3}$/.test(data('id'))</t>
@@ -1686,7 +1695,7 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.2890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.28125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.95"/>
@@ -1734,15 +1743,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P90"/>
+  <dimension ref="A1:P1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B95" activeCellId="0" sqref="B95"/>
+      <selection pane="bottomLeft" activeCell="A80" activeCellId="0" sqref="A80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.2890625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.28125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.63"/>
@@ -1757,6 +1766,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="16.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="17.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="10.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="25.4"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3202,6 +3212,12 @@
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
+      <c r="N72" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="O72" s="0" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1"/>
@@ -3211,10 +3227,10 @@
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
@@ -3233,10 +3249,10 @@
         <v>22</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F74" s="2"/>
       <c r="H74" s="1"/>
@@ -3252,13 +3268,13 @@
         <v>22</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
@@ -3271,7 +3287,7 @@
         <v>26</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -3290,13 +3306,13 @@
         <v>22</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
@@ -3309,7 +3325,7 @@
         <v>26</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -3322,112 +3338,113 @@
       <c r="L78" s="1"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="2" t="s">
-        <v>29</v>
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D79" s="1"/>
-      <c r="E79" s="3" t="s">
-        <v>69</v>
-      </c>
+      <c r="E79" s="1"/>
       <c r="F79" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="H79" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="I79" s="1" t="s">
-        <v>73</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
-      <c r="N79" s="0" t="s">
-        <v>101</v>
-      </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E80" s="3" t="s">
+      <c r="A80" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F80" s="3"/>
-      <c r="G80" s="3"/>
-      <c r="H80" s="2"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="H80" s="1"/>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="A81" s="1"/>
       <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
+      <c r="C81" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
+      <c r="E81" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H81" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
+      <c r="N81" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="P81" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="2" t="s">
+      <c r="A82" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
+      <c r="C82" s="2"/>
       <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="H82" s="6"/>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
-      <c r="H83" s="1"/>
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="2"/>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
+      <c r="P83" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="2"/>
+      <c r="A84" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="B84" s="1"/>
-      <c r="C84" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
-      <c r="F84" s="1" t="s">
-        <v>105</v>
-      </c>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
@@ -3452,9 +3469,11 @@
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B86" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -3467,17 +3486,16 @@
       <c r="L86" s="1"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C87" s="1"/>
+      <c r="A87" s="2"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
+      <c r="F87" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
@@ -3485,15 +3503,13 @@
       <c r="L87" s="1"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="2"/>
+      <c r="A88" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="B88" s="1"/>
-      <c r="C88" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="C88" s="1"/>
       <c r="D88" s="1"/>
-      <c r="E88" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
@@ -3501,9 +3517,6 @@
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
-      <c r="M88" s="0" t="s">
-        <v>107</v>
-      </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="s">
@@ -3523,9 +3536,11 @@
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B90" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -3537,6 +3552,62 @@
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
     </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="2"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="0" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+    </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -3559,7 +3630,7 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.3046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.2"/>
@@ -3568,13 +3639,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3590,62 +3661,62 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>45</v>
@@ -3656,29 +3727,29 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>45</v>
@@ -3689,161 +3760,161 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>114</v>
-      </c>
       <c r="C14" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>45</v>
@@ -3854,24 +3925,24 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3887,326 +3958,326 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="B50" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="B50" s="0" t="s">
-        <v>139</v>
-      </c>
       <c r="C50" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B59" s="0" t="s">
         <v>45</v>
@@ -4217,381 +4288,381 @@
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B94" s="0" t="s">
         <v>45</v>
@@ -4602,145 +4673,145 @@
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4748,10 +4819,10 @@
         <v>81</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4759,37 +4830,37 @@
         <v>81</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B112" s="0" t="s">
         <v>45</v>
@@ -4800,117 +4871,117 @@
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B123" s="0" t="s">
         <v>45</v>
@@ -4921,84 +4992,84 @@
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B131" s="0" t="s">
         <v>45</v>
@@ -5009,73 +5080,73 @@
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B138" s="0" t="s">
         <v>45</v>
@@ -5086,73 +5157,73 @@
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B145" s="0" t="s">
         <v>45</v>
@@ -5163,40 +5234,40 @@
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B149" s="0" t="s">
         <v>45</v>
@@ -5207,24 +5278,24 @@
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5232,10 +5303,10 @@
         <v>47</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5243,10 +5314,10 @@
         <v>47</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5254,10 +5325,10 @@
         <v>47</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5265,10 +5336,10 @@
         <v>47</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5276,10 +5347,10 @@
         <v>47</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5287,10 +5358,10 @@
         <v>47</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5298,10 +5369,10 @@
         <v>47</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5309,10 +5380,10 @@
         <v>47</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5320,10 +5391,10 @@
         <v>47</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5331,10 +5402,10 @@
         <v>47</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5342,10 +5413,10 @@
         <v>47</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5353,10 +5424,10 @@
         <v>47</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5375,10 +5446,10 @@
         <v>23</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5386,428 +5457,428 @@
         <v>23</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5815,10 +5886,10 @@
         <v>66</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5826,510 +5897,510 @@
         <v>66</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="B220" s="0" t="s">
         <v>304</v>
       </c>
-      <c r="B220" s="0" t="s">
-        <v>301</v>
-      </c>
       <c r="C220" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C232" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C233" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C234" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C235" s="0" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C236" s="0" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C237" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C238" s="0" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C239" s="0" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C240" s="0" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C241" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C242" s="0" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C243" s="0" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C244" s="0" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C245" s="0" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C246" s="0" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C247" s="0" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C248" s="0" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C249" s="0" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C250" s="0" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C251" s="0" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B252" s="0" t="s">
         <v>45</v>
@@ -6340,35 +6411,35 @@
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C253" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B254" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C254" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B255" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C255" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -6390,10 +6461,10 @@
   <dimension ref="A1:E763"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C40" activeCellId="0" sqref="C40"/>
+      <selection pane="topLeft" activeCell="C36" activeCellId="0" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.3203125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.3125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.51"/>
@@ -6405,7 +6476,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>7</v>
@@ -6414,48 +6485,48 @@
         <v>1</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="E2" s="7"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="8" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="E3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="8" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="E4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>340</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>337</v>
       </c>
       <c r="E5" s="7" t="n">
         <v>1</v>
@@ -6463,7 +6534,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="8" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>41</v>
@@ -6472,7 +6543,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="8" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>41</v>
@@ -6481,7 +6552,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="8" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>41</v>
@@ -6490,7 +6561,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="8" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>41</v>
@@ -6499,7 +6570,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="8" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>41</v>
@@ -6508,7 +6579,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="8" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>41</v>
@@ -6517,7 +6588,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="8" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>41</v>
@@ -6526,7 +6597,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>7</v>
@@ -6664,31 +6735,31 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>22</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="E26" s="7"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="10" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="E27" s="7"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="10" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>41</v>
@@ -6697,19 +6768,19 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="10" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>22</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E29" s="7"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="10" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>44</v>
@@ -6721,43 +6792,43 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="10" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>22</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E31" s="7"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E32" s="7"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="11" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>352</v>
+        <v>85</v>
       </c>
       <c r="E33" s="7"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="11" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>44</v>
@@ -6769,16 +6840,16 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="11" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>352</v>
+        <v>85</v>
       </c>
       <c r="E35" s="7"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="11" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>41</v>
@@ -6787,31 +6858,31 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="11" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E37" s="7"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="11" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E38" s="7"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B39" s="12" t="s">
         <v>24</v>
@@ -6835,7 +6906,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="12" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C41" s="12" t="s">
         <v>41</v>
@@ -6844,85 +6915,85 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="12" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C42" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E42" s="7"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="12" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C43" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E43" s="7"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="12" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C44" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E44" s="7"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="12" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C45" s="12" t="s">
         <v>44</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E45" s="7"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>22</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E46" s="7"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="9" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="C47" s="9" t="s">
         <v>44</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E47" s="7"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C48" s="13" t="s">
         <v>41</v>
@@ -6931,7 +7002,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="13" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C49" s="13" t="s">
         <v>44</v>
@@ -6943,19 +7014,19 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="13" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C50" s="13" t="s">
         <v>22</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E50" s="7"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="13" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C51" s="13" t="s">
         <v>41</v>
@@ -6964,7 +7035,7 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="13" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C52" s="13" t="s">
         <v>44</v>
@@ -6976,19 +7047,19 @@
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="13" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C53" s="13" t="s">
         <v>44</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E53" s="7"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="13" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C54" s="13" t="s">
         <v>29</v>
@@ -6997,169 +7068,169 @@
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="13" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="C55" s="13" t="s">
         <v>22</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E55" s="7"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C56" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E56" s="7"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="14" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="C57" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E57" s="7"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="14" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="C58" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E58" s="7"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="14" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="E59" s="7"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="14" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="C60" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E60" s="7"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="14" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="E61" s="7"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="C62" s="14" t="s">
         <v>384</v>
-      </c>
-      <c r="C62" s="14" t="s">
-        <v>381</v>
       </c>
       <c r="E62" s="7"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="14" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C63" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="E63" s="7"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="14" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C64" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E64" s="7"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="14" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C65" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E65" s="7"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="14" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="E66" s="7"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="14" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C67" s="14" t="s">
         <v>44</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="E67" s="7"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="14" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="C68" s="14" t="s">
         <v>44</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E68" s="7"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="14" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="C69" s="14" t="s">
         <v>29</v>
@@ -7168,31 +7239,31 @@
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="14" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="C70" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E70" s="7"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="14" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="C71" s="14" t="s">
         <v>44</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="E71" s="7"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="14" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="C72" s="14" t="s">
         <v>29</v>
@@ -7201,19 +7272,19 @@
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="14" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="C73" s="14" t="s">
         <v>44</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E73" s="7"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="14" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="C74" s="14" t="s">
         <v>29</v>
@@ -7222,31 +7293,31 @@
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="14" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="C75" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E75" s="7"/>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="14" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C76" s="14" t="s">
         <v>44</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="E76" s="7"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="14" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C77" s="14" t="s">
         <v>29</v>
@@ -7255,175 +7326,175 @@
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="14" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="C78" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E78" s="7"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="14" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="C79" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="E79" s="7"/>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="14" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C80" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E80" s="7"/>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="14" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="C81" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E81" s="7"/>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="14" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C82" s="14" t="s">
         <v>44</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E82" s="7"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="14" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C83" s="14" t="s">
         <v>44</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E83" s="7"/>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="14" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="C84" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E84" s="7"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="14" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="C85" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E85" s="7"/>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="14" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C86" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E86" s="7"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="14" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="C87" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E87" s="7"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="14" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C88" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E88" s="7"/>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="14" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C89" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E89" s="7"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="14" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C90" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E90" s="7"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="14" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C91" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E91" s="7"/>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="14" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C92" s="14" t="s">
         <v>41</v>
@@ -7432,7 +7503,7 @@
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="14" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C93" s="14" t="s">
         <v>22</v>
@@ -7444,115 +7515,115 @@
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="14" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C94" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="E94" s="7"/>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="14" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="C95" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="E95" s="7"/>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="14" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="C96" s="14" t="s">
         <v>44</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E96" s="7"/>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="14" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="C97" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="E97" s="7"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="14" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="C98" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="E98" s="7"/>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="14" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="C99" s="14" t="s">
         <v>44</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E99" s="7"/>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="14" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="C100" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E100" s="7"/>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="14" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C101" s="14" t="s">
         <v>44</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E101" s="7"/>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="14" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="C102" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E102" s="7"/>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="14" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="C103" s="14" t="s">
         <v>41</v>
@@ -9561,7 +9632,7 @@
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.2890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.28125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.93"/>
@@ -9573,75 +9644,75 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="15" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="15" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="C2" s="15"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="15" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B3" s="7" t="n">
-        <v>20210206001</v>
+        <v>20210207001</v>
       </c>
       <c r="C3" s="15"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="15" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="C4" s="15"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="15" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="15" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="15" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>7</v>
@@ -9650,44 +9721,44 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
     </row>
   </sheetData>

--- a/odkx/app/config/tables/hh_member/forms/hh_member_new/hh_member_new.xlsx
+++ b/odkx/app/config/tables/hh_member/forms/hh_member_new/hh_member_new.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1338" uniqueCount="454">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -71,6 +71,9 @@
     <t xml:space="preserve">inputAttributes.step</t>
   </si>
   <si>
+    <t xml:space="preserve">display.invalid_value_message</t>
+  </si>
+  <si>
     <t xml:space="preserve">calculation</t>
   </si>
   <si>
@@ -155,6 +158,9 @@
     <t xml:space="preserve">dob_day</t>
   </si>
   <si>
+    <t xml:space="preserve">invalid_date</t>
+  </si>
+  <si>
     <t xml:space="preserve">end if</t>
   </si>
   <si>
@@ -179,6 +185,9 @@
     <t xml:space="preserve">dob_month</t>
   </si>
   <si>
+    <t xml:space="preserve">invalid_month</t>
+  </si>
+  <si>
     <t xml:space="preserve">dob_month_dk</t>
   </si>
   <si>
@@ -192,6 +201,9 @@
   </si>
   <si>
     <t xml:space="preserve">dob_year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">invalid_year</t>
   </si>
   <si>
     <t xml:space="preserve">dob_year_dk</t>
@@ -1695,7 +1707,7 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.28125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.95"/>
@@ -1743,15 +1755,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P1048576"/>
+  <dimension ref="A1:Q93"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A80" activeCellId="0" sqref="A80"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="M23" activeCellId="0" sqref="M23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.28125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.2734375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.63"/>
@@ -1765,8 +1777,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="16.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="16.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="17.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="10.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="25.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="0" width="10.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="25.4"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1818,17 +1830,20 @@
       <c r="P1" s="0" t="s">
         <v>18</v>
       </c>
+      <c r="Q1" s="0" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -1836,10 +1851,11 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1852,21 +1868,22 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -1876,13 +1893,14 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -1894,17 +1912,18 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -1912,73 +1931,76 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-      <c r="N7" s="0" t="s">
-        <v>31</v>
-      </c>
+      <c r="M7" s="1"/>
       <c r="O7" s="0" t="s">
         <v>32</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-      <c r="N8" s="0" t="s">
-        <v>35</v>
-      </c>
+      <c r="M8" s="1"/>
       <c r="O8" s="0" t="s">
         <v>36</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="1"/>
@@ -1986,33 +2008,35 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -2023,21 +2047,22 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F12" s="2"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J12" s="1" t="n">
         <v>1</v>
@@ -2048,14 +2073,17 @@
       <c r="L12" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="N12" s="4"/>
-      <c r="P12" s="0" t="n">
+      <c r="M12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O12" s="4"/>
+      <c r="Q12" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -2067,18 +2095,19 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F14" s="2"/>
       <c r="H14" s="1"/>
@@ -2086,7 +2115,8 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="P14" s="0" t="n">
+      <c r="M14" s="1"/>
+      <c r="Q14" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2094,28 +2124,29 @@
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="1"/>
@@ -2126,21 +2157,22 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F17" s="2"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J17" s="1" t="n">
         <v>1</v>
@@ -2151,14 +2183,17 @@
       <c r="L17" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="N17" s="4"/>
-      <c r="P17" s="0" t="n">
+      <c r="M17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O17" s="4"/>
+      <c r="Q17" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
@@ -2170,18 +2205,19 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F19" s="2"/>
       <c r="H19" s="1"/>
@@ -2189,7 +2225,8 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-      <c r="P19" s="0" t="n">
+      <c r="M19" s="1"/>
+      <c r="Q19" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2197,28 +2234,29 @@
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="1"/>
@@ -2230,22 +2268,23 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J22" s="1" t="n">
         <v>1920</v>
@@ -2256,14 +2295,17 @@
       <c r="L22" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="N22" s="4"/>
-      <c r="P22" s="0" t="n">
+      <c r="M22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O22" s="4"/>
+      <c r="Q22" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="2"/>
@@ -2276,18 +2318,19 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -2296,16 +2339,17 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-      <c r="P24" s="0" t="n">
+      <c r="M24" s="1"/>
+      <c r="Q24" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="1"/>
@@ -2317,42 +2361,44 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="0" t="s">
         <v>58</v>
-      </c>
-      <c r="E26" s="0" t="s">
-        <v>55</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
-      <c r="M26" s="0" t="s">
-        <v>59</v>
+      <c r="M26" s="1"/>
+      <c r="N26" s="0" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="J27" s="1" t="n">
         <v>0</v>
@@ -2361,18 +2407,19 @@
       <c r="L27" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="M27" s="1"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -2381,13 +2428,14 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
-      <c r="P28" s="0" t="n">
+      <c r="M28" s="1"/>
+      <c r="Q28" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="2"/>
@@ -2400,141 +2448,150 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="0" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
-      <c r="M31" s="0" t="s">
-        <v>59</v>
+      <c r="M31" s="1"/>
+      <c r="N31" s="0" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="0" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
-      <c r="M34" s="0" t="s">
-        <v>59</v>
+      <c r="M34" s="1"/>
+      <c r="N34" s="0" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H36" s="5"/>
       <c r="I36" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
-      <c r="N37" s="0" t="s">
-        <v>72</v>
+      <c r="M37" s="1"/>
+      <c r="O37" s="0" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2547,13 +2604,14 @@
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -2565,17 +2623,18 @@
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -2583,73 +2642,76 @@
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
-      <c r="N41" s="0" t="s">
-        <v>76</v>
-      </c>
+      <c r="M41" s="1"/>
       <c r="O41" s="0" t="s">
-        <v>32</v>
+        <v>80</v>
+      </c>
+      <c r="P41" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
-      <c r="N42" s="0" t="s">
-        <v>78</v>
-      </c>
+      <c r="M42" s="1"/>
       <c r="O42" s="0" t="s">
-        <v>36</v>
+        <v>82</v>
+      </c>
+      <c r="P42" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" s="1"/>
@@ -2657,17 +2719,18 @@
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G44" s="2"/>
       <c r="H44" s="1"/>
@@ -2675,13 +2738,14 @@
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="1"/>
@@ -2693,22 +2757,23 @@
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J46" s="1" t="n">
         <v>1</v>
@@ -2719,13 +2784,14 @@
       <c r="L46" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="P46" s="0" t="n">
+      <c r="M46" s="1"/>
+      <c r="Q46" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="2"/>
@@ -2738,18 +2804,19 @@
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
@@ -2758,7 +2825,8 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
-      <c r="P48" s="0" t="n">
+      <c r="M48" s="1"/>
+      <c r="Q48" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2766,12 +2834,12 @@
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G49" s="2"/>
       <c r="H49" s="1"/>
@@ -2779,13 +2847,14 @@
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="1"/>
@@ -2797,22 +2866,23 @@
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J51" s="1" t="n">
         <v>1</v>
@@ -2823,13 +2893,14 @@
       <c r="L51" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="P51" s="0" t="n">
+      <c r="M51" s="1"/>
+      <c r="Q51" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="2"/>
@@ -2842,18 +2913,19 @@
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -2862,7 +2934,8 @@
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
-      <c r="P53" s="0" t="n">
+      <c r="M53" s="1"/>
+      <c r="Q53" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2870,12 +2943,12 @@
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G54" s="2"/>
       <c r="H54" s="1"/>
@@ -2883,13 +2956,14 @@
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="1"/>
@@ -2901,22 +2975,23 @@
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J56" s="1" t="n">
         <v>1920</v>
@@ -2927,13 +3002,14 @@
       <c r="L56" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="P56" s="0" t="n">
+      <c r="M56" s="1"/>
+      <c r="Q56" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="2"/>
@@ -2946,18 +3022,19 @@
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
@@ -2966,16 +3043,17 @@
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
-      <c r="P58" s="0" t="n">
+      <c r="M58" s="1"/>
+      <c r="Q58" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="1"/>
@@ -2987,42 +3065,44 @@
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="E60" s="0" t="s">
         <v>58</v>
-      </c>
-      <c r="E60" s="0" t="s">
-        <v>55</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
-      <c r="M60" s="0" t="s">
-        <v>59</v>
+      <c r="M60" s="1"/>
+      <c r="N60" s="0" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G61" s="2"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="J61" s="1" t="n">
         <v>0</v>
@@ -3031,18 +3111,19 @@
       <c r="L61" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="M61" s="1"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
@@ -3051,13 +3132,14 @@
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
-      <c r="P62" s="0" t="n">
+      <c r="M62" s="1"/>
+      <c r="Q62" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="2"/>
@@ -3070,167 +3152,177 @@
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C65" s="0" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
-      <c r="M65" s="0" t="s">
-        <v>59</v>
+      <c r="M65" s="1"/>
+      <c r="N65" s="0" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C68" s="0" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
-      <c r="M68" s="0" t="s">
-        <v>59</v>
+      <c r="M68" s="1"/>
+      <c r="N68" s="0" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H71" s="5"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
-      <c r="N72" s="0" t="s">
-        <v>88</v>
-      </c>
+      <c r="M72" s="1"/>
       <c r="O72" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
+      </c>
+      <c r="P72" s="0" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
@@ -3241,18 +3333,19 @@
       <c r="L73" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="M73" s="1"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F74" s="2"/>
       <c r="H74" s="1"/>
@@ -3260,34 +3353,36 @@
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -3298,34 +3393,36 @@
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -3336,30 +3433,32 @@
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="3" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -3370,36 +3469,38 @@
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H81" s="6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
-      <c r="N81" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="P81" s="0" t="n">
+      <c r="M81" s="1"/>
+      <c r="O81" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q81" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="2"/>
@@ -3411,18 +3512,19 @@
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
@@ -3431,13 +3533,14 @@
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
-      <c r="P83" s="0" t="n">
+      <c r="M83" s="1"/>
+      <c r="Q83" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -3450,10 +3553,11 @@
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -3466,13 +3570,14 @@
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -3484,27 +3589,29 @@
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -3517,10 +3624,11 @@
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -3533,13 +3641,14 @@
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -3551,16 +3660,17 @@
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D91" s="1"/>
       <c r="E91" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
@@ -3569,13 +3679,14 @@
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
-      <c r="M91" s="0" t="s">
-        <v>110</v>
+      <c r="M91" s="1"/>
+      <c r="N91" s="0" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -3588,10 +3699,11 @@
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -3604,10 +3716,8 @@
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
-    </row>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="M93" s="1"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -3630,7 +3740,7 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.2890625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.2"/>
@@ -3639,2807 +3749,2807 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B13" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>116</v>
-      </c>
       <c r="C13" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="B49" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="B49" s="0" t="s">
-        <v>141</v>
-      </c>
       <c r="C49" s="0" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B164" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="B164" s="0" t="s">
-        <v>45</v>
-      </c>
       <c r="C164" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="B219" s="0" t="s">
         <v>307</v>
       </c>
-      <c r="B219" s="0" t="s">
-        <v>303</v>
-      </c>
       <c r="C219" s="0" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C232" s="0" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C233" s="0" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C234" s="0" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C235" s="0" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C236" s="0" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C237" s="0" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C238" s="0" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C239" s="0" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C240" s="0" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="C241" s="0" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C242" s="0" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="C243" s="0" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C244" s="0" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C245" s="0" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C246" s="0" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C247" s="0" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C248" s="0" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C249" s="0" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C250" s="0" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C251" s="0" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B252" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C252" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C253" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B254" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C254" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B255" s="0" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C255" s="0" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -6460,11 +6570,11 @@
   </sheetPr>
   <dimension ref="A1:E763"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C36" activeCellId="0" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.3125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.3046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.51"/>
@@ -6476,7 +6586,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>7</v>
@@ -6485,48 +6595,48 @@
         <v>1</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="E2" s="7"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="8" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="E3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="8" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="E4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="8" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="E5" s="7" t="n">
         <v>1</v>
@@ -6534,1099 +6644,1099 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="8" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="8" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="8" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="8" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="8" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E10" s="7"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="8" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E11" s="7"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="8" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E12" s="7"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E13" s="7"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E14" s="7"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>41</v>
       </c>
       <c r="E15" s="7"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>44</v>
-      </c>
       <c r="D16" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E16" s="7"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="9" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="9" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E19" s="7"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="9" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E20" s="7"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="9" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E21" s="7"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E22" s="7"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E23" s="7"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="9" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E24" s="7"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E25" s="7"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="E26" s="7"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="10" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="E27" s="7"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="10" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E28" s="7"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="10" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E29" s="7"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="10" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E30" s="7"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="10" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E31" s="7"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E32" s="7"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="11" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E33" s="7"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="11" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E34" s="7"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="11" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E35" s="7"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="11" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E36" s="7"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="11" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E37" s="7"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="11" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E38" s="7"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B39" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" s="0" t="s">
         <v>24</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D39" s="0" t="s">
-        <v>23</v>
       </c>
       <c r="E39" s="7"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="12" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E40" s="7"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="12" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E41" s="7"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="12" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E42" s="7"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="12" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E43" s="7"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="12" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E44" s="7"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="12" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E45" s="7"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E46" s="7"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="9" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E47" s="7"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E48" s="7"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="13" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E49" s="7"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="13" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E50" s="7"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="13" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E51" s="7"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="13" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E52" s="7"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="13" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E53" s="7"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="13" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E54" s="7"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="13" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E55" s="7"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E56" s="7"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="14" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E57" s="7"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="14" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E58" s="7"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="14" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="E59" s="7"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="14" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E60" s="7"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="14" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="E61" s="7"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="14" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="E62" s="7"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="14" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="E63" s="7"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="14" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="E64" s="7"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="14" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="E65" s="7"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="14" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="E66" s="7"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="14" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="E67" s="7"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="14" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E68" s="7"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="14" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E69" s="7"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="14" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E70" s="7"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="14" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="E71" s="7"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="14" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E72" s="7"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="14" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="E73" s="7"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="14" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E74" s="7"/>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="14" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E75" s="7"/>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="14" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E76" s="7"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="14" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E77" s="7"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="14" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E78" s="7"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="14" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="E79" s="7"/>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="14" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E80" s="7"/>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="14" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="E81" s="7"/>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="14" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E82" s="7"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="14" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="E83" s="7"/>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="14" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E84" s="7"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="14" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E85" s="7"/>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="14" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E86" s="7"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="14" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="E87" s="7"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="14" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E88" s="7"/>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="14" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E89" s="7"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="14" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="E90" s="7"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="14" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E91" s="7"/>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="14" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E92" s="7"/>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="14" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E93" s="7"/>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="14" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="E94" s="7"/>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="14" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="E95" s="7"/>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="14" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="C96" s="14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E96" s="7"/>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="14" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="C97" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="E97" s="7"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="14" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="C98" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="E98" s="7"/>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="14" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C99" s="14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E99" s="7"/>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="14" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C100" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E100" s="7"/>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="14" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C101" s="14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="E101" s="7"/>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="14" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="C102" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E102" s="7"/>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="14" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="C103" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E103" s="7"/>
     </row>
@@ -9632,7 +9742,7 @@
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.28125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.93"/>
@@ -9644,42 +9754,42 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="15" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="15" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="C2" s="15"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="15" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="B3" s="7" t="n">
         <v>20210207001</v>
@@ -9688,31 +9798,31 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="15" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="C4" s="15"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="15" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="15" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="15" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>7</v>
@@ -9721,44 +9831,44 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
     </row>
   </sheetData>

--- a/odkx/app/config/tables/hh_member/forms/hh_member_new/hh_member_new.xlsx
+++ b/odkx/app/config/tables/hh_member/forms/hh_member_new/hh_member_new.xlsx
@@ -158,7 +158,7 @@
     <t xml:space="preserve">dob_day</t>
   </si>
   <si>
-    <t xml:space="preserve">invalid_date</t>
+    <t xml:space="preserve">Date entered must be a number between 1 and 31. / Tarehe(siku) iliyoingizwa inatakiwa kuwa namba kati ya 1 na 31 / A data introduzida deve ser um numero entre 1 a 31.</t>
   </si>
   <si>
     <t xml:space="preserve">end if</t>
@@ -185,7 +185,7 @@
     <t xml:space="preserve">dob_month</t>
   </si>
   <si>
-    <t xml:space="preserve">invalid_month</t>
+    <t xml:space="preserve">Month entered must be a number between 1 and 12. / Mwezi uliyoingizwa unatakiwa kuwa namba kati ya 1 na12 / O mes introduzido deve ser um numero entre 1 e 12.</t>
   </si>
   <si>
     <t xml:space="preserve">dob_month_dk</t>
@@ -203,7 +203,7 @@
     <t xml:space="preserve">dob_year</t>
   </si>
   <si>
-    <t xml:space="preserve">invalid_year</t>
+    <t xml:space="preserve">Year entered must be a number between 1920 and 2021. / Mwaka uliyoingizwa unatakiwa kuwa namba kati ya 1920 na 2021 / O ano introduido deve ser um numero entre 1920 e 2021</t>
   </si>
   <si>
     <t xml:space="preserve">dob_year_dk</t>
@@ -1704,10 +1704,10 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="M12:M22 C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.95"/>
@@ -1757,13 +1757,13 @@
   </sheetPr>
   <dimension ref="A1:Q93"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="M23" activeCellId="0" sqref="M23"/>
+      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="M12" activeCellId="0" sqref="M12:M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.2734375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.63"/>
@@ -2073,7 +2073,7 @@
       <c r="L12" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="M12" s="0" t="s">
         <v>44</v>
       </c>
       <c r="O12" s="4"/>
@@ -2095,7 +2095,6 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1"/>
@@ -2115,7 +2114,6 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
       <c r="Q14" s="0" t="n">
         <v>1</v>
       </c>
@@ -2139,7 +2137,6 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
@@ -2157,7 +2154,6 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1"/>
@@ -2183,7 +2179,7 @@
       <c r="L17" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="M17" s="0" t="s">
         <v>53</v>
       </c>
       <c r="O17" s="4"/>
@@ -2205,7 +2201,6 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1"/>
@@ -2225,7 +2220,6 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
       <c r="Q19" s="0" t="n">
         <v>1</v>
       </c>
@@ -2249,7 +2243,6 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
@@ -2268,7 +2261,6 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1"/>
@@ -2295,7 +2287,7 @@
       <c r="L22" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="M22" s="0" t="s">
         <v>59</v>
       </c>
       <c r="O22" s="4"/>
@@ -3737,10 +3729,10 @@
   <dimension ref="A1:C255"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="M12:M22 C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.2890625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.28125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.2"/>
@@ -6571,10 +6563,10 @@
   <dimension ref="A1:E763"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C36" activeCellId="0" sqref="C36"/>
+      <selection pane="topLeft" activeCell="C36" activeCellId="1" sqref="M12:M22 C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.3046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.51"/>
@@ -9739,10 +9731,10 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="1" sqref="M12:M22 B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.93"/>
